--- a/buyDetails.xlsx
+++ b/buyDetails.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="431">
   <si>
     <t>设计费定金</t>
   </si>
@@ -856,14 +857,624 @@
   </si>
   <si>
     <t>列4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德合家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8套 原装进口 除菌烘干嵌入式家用洗碗机 SC73M810TI 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门子（SIEMENS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">电饼铛家用双面加热煎烤机LR-D3009 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利仁（Liven）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX招行信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">地宝魔镜S（CEN540-LG）扫地机器人家用吸尘器全自动智能拖地机 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科沃斯（Ecovacs）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">吸尘器 ZC405F 家用床铺除螨仪 紫外线杀菌 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔（Haier）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小马踢脚线定金
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小马家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢脚线定金200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲醛测试仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检察官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免漆洗衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧尔勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯恩国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江北红星美凯龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床定金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非同沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发尾款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙溪力诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单人功能沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝华士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX建行信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷纸架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室三脚架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅盖架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微波炉架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调味架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧蒙德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯6W 4000K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯退货运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX招行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫-芝华士旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫—卡贝旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝-欧德蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫—帝郎旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫-雷士旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老李五金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞雨花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝-老李家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室斗柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫—室尚旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床头柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涪民家具店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌思宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫-歌思宝旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫-粤府旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁木艺馨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方形双头射灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞利浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫—轩适家居专营店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫—德菲思家居专营店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5 1.2米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5 0.6米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单色灯带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单色灯带转换器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色灯带转换器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色筒灯6W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色灯带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗格朗补货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗格朗旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫—罗格朗旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房检修口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫—米塔尔旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米塔尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角阀、生料带、水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃钻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无牌子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门口小店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST工资卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力诚家、鸳鸯西部建材城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿萝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊兰、虎皮兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人和花卉市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室挂件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代仿版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜前灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫—胜安装潢专营店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">天猫—沃嘉旗舰店 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅吊灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发吊灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方太气管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方太</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能率安装配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅展示柜最上层拉手没装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿衣镜没装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卫卫生间镜子没装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书柜侧面增加小柜子（等待到货）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书房衣柜2个门板（等待到货）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧衣柜最左边的侧板未安装（现场有货，上次以为没有拿过来）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活阳台柜子背板没装，上次有说重新弄，还没有弄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书柜下放电脑的小柜子没固定好（上次木工走的时候说下次弄）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书房衣柜柜门拉手，抽屉拉手全部没装（说是门板到了以后一起装）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧衣柜抽屉有跟螺丝打到外面去了（我们新发现的问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣通的胶条没密封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书柜灯带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活阳台补洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢脚线补缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅灯、沙发灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房报警器弄出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卫筒灯移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景观阳台补腻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房过滤器用管子接到下水里去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房水龙头重力锤位置调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个筒灯（次卫、主卧过道）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个开关面板（景观阳台，2个风暖，主卧三开双开关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个卫生间五金（2个浴巾架，2个毛巾架，一个挂钩，次卫3个，主卫2个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络AP安装（客厅1308GI，书房1300，主卧1300），交换机、路由器、光猫放入弱电箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧面板补缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分开关面板有些歪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个卫生间镜前灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘菜盆台面开孔小了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗碗机调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积成世家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -873,6 +1484,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -899,16 +1518,119 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -924,16 +1646,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K88" totalsRowShown="0">
-  <autoFilter ref="A1:K88"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K142" totalsRowShown="0">
+  <autoFilter ref="A1:K142"/>
   <tableColumns count="11">
     <tableColumn id="1" name="列1"/>
-    <tableColumn id="2" name="列2" dataDxfId="0"/>
+    <tableColumn id="2" name="列2" dataDxfId="6"/>
     <tableColumn id="3" name="列3"/>
     <tableColumn id="4" name="列4"/>
     <tableColumn id="5" name="列5"/>
     <tableColumn id="6" name="列6"/>
-    <tableColumn id="7" name="列7"/>
+    <tableColumn id="7" name="列7" dataDxfId="5">
+      <calculatedColumnFormula>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="8" name="列8"/>
     <tableColumn id="9" name="列9"/>
     <tableColumn id="10" name="列10"/>
@@ -944,6 +1668,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:B14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:B14"/>
+  <tableColumns count="2">
+    <tableColumn id="2" name="列2" dataDxfId="1"/>
+    <tableColumn id="1" name="积成世家" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A16:B32" totalsRowShown="0">
+  <autoFilter ref="A16:B32"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="列1" dataDxfId="0"/>
+    <tableColumn id="2" name="张勇"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:D13" totalsRowShown="0">
   <autoFilter ref="A1:D13"/>
   <tableColumns count="4">
@@ -957,7 +1703,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1032,6 +1778,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1067,6 +1830,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1243,15 +2023,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>249</v>
       </c>
@@ -1285,12 +2068,16 @@
       <c r="K1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M1">
+        <f>SUM(表1[列7])</f>
+        <v>328627.29009999993</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>42728.379662615742</v>
       </c>
       <c r="C2" t="s">
@@ -1306,6 +2093,7 @@
         <v>1</v>
       </c>
       <c r="G2">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2000</v>
       </c>
       <c r="H2" t="s">
@@ -1321,11 +2109,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>42728.630544826388</v>
       </c>
       <c r="C3" t="s">
@@ -1341,6 +2129,7 @@
         <v>1</v>
       </c>
       <c r="G3">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>300</v>
       </c>
       <c r="H3" t="s">
@@ -1356,11 +2145,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>42731.631070717594</v>
       </c>
       <c r="C4" t="s">
@@ -1376,6 +2165,7 @@
         <v>1</v>
       </c>
       <c r="G4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>363</v>
       </c>
       <c r="H4" t="s">
@@ -1391,11 +2181,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>42733.975347534724</v>
       </c>
       <c r="C5" t="s">
@@ -1411,6 +2201,7 @@
         <v>1</v>
       </c>
       <c r="G5">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>7330</v>
       </c>
       <c r="H5" t="s">
@@ -1426,11 +2217,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>42735.511084062498</v>
       </c>
       <c r="C6" t="s">
@@ -1446,6 +2237,7 @@
         <v>1</v>
       </c>
       <c r="G6">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1000</v>
       </c>
       <c r="H6" t="s">
@@ -1461,11 +2253,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>42735.595616435188</v>
       </c>
       <c r="C7" t="s">
@@ -1481,6 +2273,7 @@
         <v>6</v>
       </c>
       <c r="G7">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>6828</v>
       </c>
       <c r="H7" t="s">
@@ -1496,11 +2289,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>42783.6875</v>
       </c>
       <c r="C8" t="s">
@@ -1516,6 +2309,7 @@
         <v>1</v>
       </c>
       <c r="G8">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1986</v>
       </c>
       <c r="H8" t="s">
@@ -1531,11 +2325,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>42783.6875</v>
       </c>
       <c r="C9" t="s">
@@ -1551,6 +2345,7 @@
         <v>3</v>
       </c>
       <c r="G9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>966</v>
       </c>
       <c r="H9" t="s">
@@ -1566,11 +2361,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>42785.6875</v>
       </c>
       <c r="C10" t="s">
@@ -1586,7 +2381,8 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>10127</v>
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>10127.000100000001</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
@@ -1601,11 +2397,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>42785.6875</v>
       </c>
       <c r="C11" t="s">
@@ -1621,6 +2417,7 @@
         <v>1</v>
       </c>
       <c r="G11">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2680</v>
       </c>
       <c r="H11" t="s">
@@ -1636,11 +2433,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>42785.6875</v>
       </c>
       <c r="C12" t="s">
@@ -1656,6 +2453,7 @@
         <v>1</v>
       </c>
       <c r="G12">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2200</v>
       </c>
       <c r="H12" t="s">
@@ -1671,11 +2469,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>42785.6875</v>
       </c>
       <c r="C13" t="s">
@@ -1691,6 +2489,7 @@
         <v>1</v>
       </c>
       <c r="G13">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>500</v>
       </c>
       <c r="H13" t="s">
@@ -1706,11 +2505,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>42792.708333333336</v>
       </c>
       <c r="C14" t="s">
@@ -1726,6 +2525,7 @@
         <v>1</v>
       </c>
       <c r="G14">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1249</v>
       </c>
       <c r="H14" t="s">
@@ -1741,11 +2541,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>42792.708333333336</v>
       </c>
       <c r="C15" t="s">
@@ -1761,6 +2561,7 @@
         <v>1</v>
       </c>
       <c r="G15">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1549</v>
       </c>
       <c r="H15" t="s">
@@ -1776,11 +2577,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>42792.708333333336</v>
       </c>
       <c r="C16" t="s">
@@ -1796,6 +2597,7 @@
         <v>1</v>
       </c>
       <c r="G16">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1799</v>
       </c>
       <c r="H16" t="s">
@@ -1815,7 +2617,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>42797.770833333336</v>
       </c>
       <c r="C17" t="s">
@@ -1831,6 +2633,7 @@
         <v>1</v>
       </c>
       <c r="G17">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>7400</v>
       </c>
       <c r="H17" t="s">
@@ -1850,7 +2653,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>42799.625</v>
       </c>
       <c r="C18" t="s">
@@ -1866,6 +2669,7 @@
         <v>1</v>
       </c>
       <c r="G18">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>500</v>
       </c>
       <c r="H18" t="s">
@@ -1885,7 +2689,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>42805.5</v>
       </c>
       <c r="C19" t="s">
@@ -1901,6 +2705,7 @@
         <v>1</v>
       </c>
       <c r="G19">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>29500</v>
       </c>
       <c r="H19" t="s">
@@ -1920,7 +2725,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>42806.583333333336</v>
       </c>
       <c r="C20" t="s">
@@ -1936,6 +2741,7 @@
         <v>1</v>
       </c>
       <c r="G20">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>3800</v>
       </c>
       <c r="H20" t="s">
@@ -1955,7 +2761,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>42809.708333333336</v>
       </c>
       <c r="C21" t="s">
@@ -1971,6 +2777,7 @@
         <v>1</v>
       </c>
       <c r="G21">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>58</v>
       </c>
       <c r="H21" t="s">
@@ -1990,7 +2797,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>42809.708333333336</v>
       </c>
       <c r="C22" t="s">
@@ -2006,6 +2813,7 @@
         <v>1</v>
       </c>
       <c r="G22">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>30</v>
       </c>
       <c r="H22" t="s">
@@ -2025,7 +2833,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>42813.541666666664</v>
       </c>
       <c r="C23" t="s">
@@ -2041,6 +2849,7 @@
         <v>1</v>
       </c>
       <c r="G23">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2000</v>
       </c>
       <c r="H23" t="s">
@@ -2060,7 +2869,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>42813.541666666664</v>
       </c>
       <c r="C24" t="s">
@@ -2076,6 +2885,7 @@
         <v>1</v>
       </c>
       <c r="G24">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2000</v>
       </c>
       <c r="H24" t="s">
@@ -2095,7 +2905,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>42813.583333333336</v>
       </c>
       <c r="C25" t="s">
@@ -2111,6 +2921,7 @@
         <v>1</v>
       </c>
       <c r="G25">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2247</v>
       </c>
       <c r="H25" t="s">
@@ -2130,7 +2941,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>42813.729166666664</v>
       </c>
       <c r="C26" t="s">
@@ -2146,6 +2957,7 @@
         <v>1</v>
       </c>
       <c r="G26">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2000</v>
       </c>
       <c r="H26" t="s">
@@ -2165,7 +2977,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>42818.587500000001</v>
       </c>
       <c r="C27" t="s">
@@ -2181,6 +2993,7 @@
         <v>1</v>
       </c>
       <c r="G27">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>4640</v>
       </c>
       <c r="H27" t="s">
@@ -2194,7 +3007,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>42819.666666666664</v>
       </c>
       <c r="C28" t="s">
@@ -2210,6 +3023,7 @@
         <v>1</v>
       </c>
       <c r="G28">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2000</v>
       </c>
       <c r="H28" t="s">
@@ -2229,7 +3043,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>42820.587500000001</v>
       </c>
       <c r="C29" t="s">
@@ -2245,6 +3059,7 @@
         <v>1</v>
       </c>
       <c r="G29">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>31</v>
       </c>
       <c r="H29" t="s">
@@ -2258,7 +3073,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>42855.837500000001</v>
       </c>
       <c r="C30" t="s">
@@ -2274,6 +3089,7 @@
         <v>1</v>
       </c>
       <c r="G30">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>4640</v>
       </c>
       <c r="H30" t="s">
@@ -2287,7 +3103,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>42857.617361111108</v>
       </c>
       <c r="C31" t="s">
@@ -2303,6 +3119,7 @@
         <v>1</v>
       </c>
       <c r="G31">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2000</v>
       </c>
       <c r="H31" t="s">
@@ -2316,7 +3133,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>42857.617361111108</v>
       </c>
       <c r="C32" t="s">
@@ -2332,6 +3149,7 @@
         <v>1</v>
       </c>
       <c r="G32">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>137</v>
       </c>
       <c r="H32" t="s">
@@ -2348,7 +3166,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>42857.837500000001</v>
       </c>
       <c r="C33" t="s">
@@ -2364,6 +3182,7 @@
         <v>1</v>
       </c>
       <c r="G33">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>363</v>
       </c>
       <c r="H33" t="s">
@@ -2377,7 +3196,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>42858.861111111109</v>
       </c>
       <c r="C34" t="s">
@@ -2393,6 +3212,7 @@
         <v>1</v>
       </c>
       <c r="G34">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>18400</v>
       </c>
       <c r="H34" t="s">
@@ -2406,7 +3226,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>42883.444444444445</v>
       </c>
       <c r="C35" t="s">
@@ -2422,6 +3242,7 @@
         <v>1</v>
       </c>
       <c r="G35">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>949.3</v>
       </c>
       <c r="H35" t="s">
@@ -2438,7 +3259,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>42883.611111111109</v>
       </c>
       <c r="C36" t="s">
@@ -2454,6 +3275,7 @@
         <v>1</v>
       </c>
       <c r="G36">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>869</v>
       </c>
       <c r="H36" t="s">
@@ -2470,7 +3292,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>42884.010416666664</v>
       </c>
       <c r="C37" t="s">
@@ -2486,6 +3308,7 @@
         <v>1</v>
       </c>
       <c r="G37">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>177.49</v>
       </c>
       <c r="H37" t="s">
@@ -2499,7 +3322,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>42884.777777777781</v>
       </c>
       <c r="C38" t="s">
@@ -2515,6 +3338,7 @@
         <v>1</v>
       </c>
       <c r="G38">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>3000</v>
       </c>
       <c r="H38" t="s">
@@ -2531,7 +3355,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>42886.861111111109</v>
       </c>
       <c r="C39" t="s">
@@ -2547,6 +3371,7 @@
         <v>1</v>
       </c>
       <c r="G39">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1600</v>
       </c>
       <c r="H39" t="s">
@@ -2563,7 +3388,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>42889.486111111109</v>
       </c>
       <c r="C40" t="s">
@@ -2579,6 +3404,7 @@
         <v>1</v>
       </c>
       <c r="G40">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>550</v>
       </c>
       <c r="H40" t="s">
@@ -2595,7 +3421,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>42889.611111111109</v>
       </c>
       <c r="C41" t="s">
@@ -2611,6 +3437,7 @@
         <v>1</v>
       </c>
       <c r="G41">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1000</v>
       </c>
       <c r="H41" t="s">
@@ -2627,7 +3454,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>42895.444444444445</v>
       </c>
       <c r="C42" t="s">
@@ -2643,6 +3470,7 @@
         <v>1</v>
       </c>
       <c r="G42">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>699</v>
       </c>
       <c r="H42" t="s">
@@ -2659,7 +3487,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>42896.527777777781</v>
       </c>
       <c r="C43" t="s">
@@ -2675,6 +3503,7 @@
         <v>1</v>
       </c>
       <c r="G43">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>680</v>
       </c>
       <c r="H43" t="s">
@@ -2691,7 +3520,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>42900.84375</v>
       </c>
       <c r="C44" t="s">
@@ -2707,6 +3536,7 @@
         <v>1</v>
       </c>
       <c r="G44">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>25900</v>
       </c>
       <c r="H44" t="s">
@@ -2723,7 +3553,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>42902.527777777781</v>
       </c>
       <c r="C45" t="s">
@@ -2739,6 +3569,7 @@
         <v>1</v>
       </c>
       <c r="G45">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>-12178.5</v>
       </c>
       <c r="H45" t="s">
@@ -2752,7 +3583,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>42903.736111111109</v>
       </c>
       <c r="C46" t="s">
@@ -2768,6 +3599,7 @@
         <v>1</v>
       </c>
       <c r="G46">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>7800</v>
       </c>
       <c r="H46" t="s">
@@ -2784,7 +3616,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>42906.427083333336</v>
       </c>
       <c r="C47" t="s">
@@ -2800,6 +3632,7 @@
         <v>1</v>
       </c>
       <c r="G47">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1989.68</v>
       </c>
       <c r="H47" t="s">
@@ -2816,7 +3649,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>42906.427083333336</v>
       </c>
       <c r="C48" t="s">
@@ -2832,6 +3665,7 @@
         <v>1</v>
       </c>
       <c r="G48">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>161.19</v>
       </c>
       <c r="H48" t="s">
@@ -2848,7 +3682,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>42907.552083333336</v>
       </c>
       <c r="C49" t="s">
@@ -2864,6 +3698,7 @@
         <v>1</v>
       </c>
       <c r="G49">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>80</v>
       </c>
       <c r="H49" t="s">
@@ -2880,7 +3715,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>42909.611111111109</v>
       </c>
       <c r="C50" t="s">
@@ -2896,6 +3731,7 @@
         <v>1</v>
       </c>
       <c r="G50">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>296</v>
       </c>
       <c r="H50" t="s">
@@ -2912,7 +3748,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>42909.666666666664</v>
       </c>
       <c r="C51" t="s">
@@ -2928,6 +3764,7 @@
         <v>1</v>
       </c>
       <c r="G51">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>400</v>
       </c>
       <c r="H51" t="s">
@@ -2944,7 +3781,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>42909.833333333336</v>
       </c>
       <c r="C52" t="s">
@@ -2960,6 +3797,7 @@
         <v>3</v>
       </c>
       <c r="G52">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>240</v>
       </c>
       <c r="H52" t="s">
@@ -2976,7 +3814,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>42909.861111111109</v>
       </c>
       <c r="C53" t="s">
@@ -2992,6 +3830,7 @@
         <v>1</v>
       </c>
       <c r="G53">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>166</v>
       </c>
       <c r="H53" t="s">
@@ -3008,7 +3847,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>42911.736111111109</v>
       </c>
       <c r="C54" t="s">
@@ -3024,6 +3863,7 @@
         <v>1</v>
       </c>
       <c r="G54">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>16186</v>
       </c>
       <c r="H54" t="s">
@@ -3040,7 +3880,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>42913.680555555555</v>
       </c>
       <c r="C55" t="s">
@@ -3056,6 +3896,7 @@
         <v>1</v>
       </c>
       <c r="G55">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1847</v>
       </c>
       <c r="H55" t="s">
@@ -3072,7 +3913,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>42913.71875</v>
       </c>
       <c r="C56" t="s">
@@ -3088,6 +3929,7 @@
         <v>1</v>
       </c>
       <c r="G56">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>500</v>
       </c>
       <c r="H56" t="s">
@@ -3104,7 +3946,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>42917.354166666664</v>
       </c>
       <c r="C57" t="s">
@@ -3120,6 +3962,7 @@
         <v>1</v>
       </c>
       <c r="G57">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>70</v>
       </c>
       <c r="H57" t="s">
@@ -3136,7 +3979,7 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>42917.4375</v>
       </c>
       <c r="C58" t="s">
@@ -3152,6 +3995,7 @@
         <v>1</v>
       </c>
       <c r="G58">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>245</v>
       </c>
       <c r="H58" t="s">
@@ -3168,7 +4012,7 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>42918.354166666664</v>
       </c>
       <c r="C59" t="s">
@@ -3184,6 +4028,7 @@
         <v>1</v>
       </c>
       <c r="G59">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>240</v>
       </c>
       <c r="H59" t="s">
@@ -3200,7 +4045,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>42924.458333333336</v>
       </c>
       <c r="C60" t="s">
@@ -3216,6 +4061,7 @@
         <v>1</v>
       </c>
       <c r="G60">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2245</v>
       </c>
       <c r="H60" t="s">
@@ -3232,7 +4078,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>42924.520833333336</v>
       </c>
       <c r="C61" t="s">
@@ -3248,6 +4094,7 @@
         <v>1</v>
       </c>
       <c r="G61">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1800</v>
       </c>
       <c r="H61" t="s">
@@ -3264,7 +4111,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>42924.604166666664</v>
       </c>
       <c r="C62" t="s">
@@ -3280,6 +4127,7 @@
         <v>1</v>
       </c>
       <c r="G62">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2285</v>
       </c>
       <c r="H62" t="s">
@@ -3296,7 +4144,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>42924.604166666664</v>
       </c>
       <c r="C63" t="s">
@@ -3312,6 +4160,7 @@
         <v>1</v>
       </c>
       <c r="G63">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1343</v>
       </c>
       <c r="H63" t="s">
@@ -3328,7 +4177,7 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>42924.729166666664</v>
       </c>
       <c r="C64" t="s">
@@ -3344,6 +4193,7 @@
         <v>1</v>
       </c>
       <c r="G64">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>6420</v>
       </c>
       <c r="H64" t="s">
@@ -3360,7 +4210,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>42924.729166666664</v>
       </c>
       <c r="C65" t="s">
@@ -3376,6 +4226,7 @@
         <v>1</v>
       </c>
       <c r="G65">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>3099</v>
       </c>
       <c r="H65" t="s">
@@ -3392,7 +4243,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>42931.666666666664</v>
       </c>
       <c r="C66" t="s">
@@ -3408,6 +4259,7 @@
         <v>1</v>
       </c>
       <c r="G66">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>300</v>
       </c>
       <c r="H66" t="s">
@@ -3424,7 +4276,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>42932.458333333336</v>
       </c>
       <c r="C67" t="s">
@@ -3440,6 +4292,7 @@
         <v>1</v>
       </c>
       <c r="G67">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>100</v>
       </c>
       <c r="H67" t="s">
@@ -3453,7 +4306,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>42939.708333333336</v>
       </c>
       <c r="C68" t="s">
@@ -3469,6 +4322,7 @@
         <v>1</v>
       </c>
       <c r="G68">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2900</v>
       </c>
       <c r="H68" t="s">
@@ -3485,7 +4339,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>42939.708333333336</v>
       </c>
       <c r="C69" t="s">
@@ -3501,6 +4355,7 @@
         <v>1</v>
       </c>
       <c r="G69">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>250</v>
       </c>
       <c r="H69" t="s">
@@ -3514,7 +4369,7 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>42939.708333333336</v>
       </c>
       <c r="C70" t="s">
@@ -3530,6 +4385,7 @@
         <v>1</v>
       </c>
       <c r="G70">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>350</v>
       </c>
       <c r="H70" t="s">
@@ -3543,7 +4399,7 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>42939.708333333336</v>
       </c>
       <c r="C71" t="s">
@@ -3559,6 +4415,7 @@
         <v>1</v>
       </c>
       <c r="G71">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>300</v>
       </c>
       <c r="H71" t="s">
@@ -3572,7 +4429,7 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>42945.5</v>
       </c>
       <c r="C72" t="s">
@@ -3588,6 +4445,7 @@
         <v>1</v>
       </c>
       <c r="G72">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1800</v>
       </c>
       <c r="H72" t="s">
@@ -3598,7 +4456,7 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>42945.5</v>
       </c>
       <c r="C73" t="s">
@@ -3614,6 +4472,7 @@
         <v>1</v>
       </c>
       <c r="G73">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>330</v>
       </c>
       <c r="H73" t="s">
@@ -3624,14 +4483,14 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>42947.75</v>
       </c>
       <c r="C74" t="s">
         <v>222</v>
       </c>
       <c r="D74" t="s">
-        <v>52</v>
+        <v>398</v>
       </c>
       <c r="E74">
         <v>951</v>
@@ -3640,6 +4499,7 @@
         <v>2</v>
       </c>
       <c r="G74">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1902</v>
       </c>
       <c r="H74" t="s">
@@ -3653,7 +4513,7 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <v>42947.75</v>
       </c>
       <c r="C75" t="s">
@@ -3669,6 +4529,7 @@
         <v>2</v>
       </c>
       <c r="G75">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1598</v>
       </c>
       <c r="H75" t="s">
@@ -3682,7 +4543,7 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>42948.708333333336</v>
       </c>
       <c r="C76" t="s">
@@ -3698,6 +4559,7 @@
         <v>1</v>
       </c>
       <c r="G76">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>16100</v>
       </c>
       <c r="H76" t="s">
@@ -3711,7 +4573,7 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>42953.6875</v>
       </c>
       <c r="C77" t="s">
@@ -3727,6 +4589,7 @@
         <v>1</v>
       </c>
       <c r="G77">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>44800</v>
       </c>
       <c r="H77" t="s">
@@ -3740,7 +4603,7 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>42953.770833333336</v>
       </c>
       <c r="C78" t="s">
@@ -3756,6 +4619,7 @@
         <v>1</v>
       </c>
       <c r="G78">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>7000</v>
       </c>
       <c r="H78" t="s">
@@ -3769,7 +4633,7 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>42959.520833333336</v>
       </c>
       <c r="C79" t="s">
@@ -3785,6 +4649,7 @@
         <v>1</v>
       </c>
       <c r="G79">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>250</v>
       </c>
       <c r="H79" t="s">
@@ -3795,7 +4660,7 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <v>42966.458333333336</v>
       </c>
       <c r="C80" t="s">
@@ -3811,6 +4676,7 @@
         <v>1</v>
       </c>
       <c r="G80">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>450</v>
       </c>
       <c r="H80" t="s">
@@ -3824,7 +4690,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>42967.604166666664</v>
       </c>
       <c r="C81" t="s">
@@ -3840,6 +4706,7 @@
         <v>1</v>
       </c>
       <c r="G81">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1446.56</v>
       </c>
       <c r="H81" t="s">
@@ -3853,7 +4720,7 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>42967.604166666664</v>
       </c>
       <c r="C82" t="s">
@@ -3869,6 +4736,7 @@
         <v>1</v>
       </c>
       <c r="G82">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>614.44000000000005</v>
       </c>
       <c r="H82" t="s">
@@ -3882,7 +4750,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>42976.666666666664</v>
       </c>
       <c r="C83" t="s">
@@ -3898,6 +4766,7 @@
         <v>1</v>
       </c>
       <c r="G83">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1680</v>
       </c>
       <c r="H83" t="s">
@@ -3911,7 +4780,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>42977.732638888891</v>
       </c>
       <c r="C84" t="s">
@@ -3927,6 +4796,7 @@
         <v>1</v>
       </c>
       <c r="G84">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>472</v>
       </c>
       <c r="H84" t="s">
@@ -3940,7 +4810,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <v>42980.729166666664</v>
       </c>
       <c r="C85" t="s">
@@ -3956,6 +4826,7 @@
         <v>1</v>
       </c>
       <c r="G85">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>6104</v>
       </c>
       <c r="H85" t="s">
@@ -3972,7 +4843,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>42986.604166666664</v>
       </c>
       <c r="C86" t="s">
@@ -3988,6 +4859,7 @@
         <v>1</v>
       </c>
       <c r="G86">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>7876</v>
       </c>
       <c r="H86" t="s">
@@ -4007,7 +4879,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>42987.666666666664</v>
       </c>
       <c r="C87" t="s">
@@ -4023,6 +4895,7 @@
         <v>1</v>
       </c>
       <c r="G87">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>-300</v>
       </c>
       <c r="H87" t="s">
@@ -4039,14 +4912,14 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>42989.732638888891</v>
       </c>
       <c r="C88" t="s">
         <v>76</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="E88">
         <v>-90</v>
@@ -4055,6 +4928,7 @@
         <v>1</v>
       </c>
       <c r="G88">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>-90</v>
       </c>
       <c r="H88" t="s">
@@ -4065,6 +4939,1640 @@
       </c>
       <c r="K88" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
+        <v>43004</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D89" t="s">
+        <v>292</v>
+      </c>
+      <c r="E89">
+        <v>200</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>200</v>
+      </c>
+      <c r="H89" t="s">
+        <v>286</v>
+      </c>
+      <c r="I89" t="s">
+        <v>296</v>
+      </c>
+      <c r="K89" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <v>43008</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" t="s">
+        <v>283</v>
+      </c>
+      <c r="E90">
+        <v>4349</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>4349</v>
+      </c>
+      <c r="H90" t="s">
+        <v>286</v>
+      </c>
+      <c r="I90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>43008</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D91" t="s">
+        <v>285</v>
+      </c>
+      <c r="E91">
+        <v>159</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>159</v>
+      </c>
+      <c r="H91" t="s">
+        <v>286</v>
+      </c>
+      <c r="I91" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2">
+        <v>43008</v>
+      </c>
+      <c r="C92" t="s">
+        <v>287</v>
+      </c>
+      <c r="D92" t="s">
+        <v>288</v>
+      </c>
+      <c r="E92">
+        <v>899</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>899</v>
+      </c>
+      <c r="H92" t="s">
+        <v>286</v>
+      </c>
+      <c r="I92" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2">
+        <v>43008</v>
+      </c>
+      <c r="C93" t="s">
+        <v>289</v>
+      </c>
+      <c r="D93" t="s">
+        <v>290</v>
+      </c>
+      <c r="E93">
+        <v>398</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>398</v>
+      </c>
+      <c r="H93" t="s">
+        <v>286</v>
+      </c>
+      <c r="I93" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
+        <v>43013</v>
+      </c>
+      <c r="C94" t="s">
+        <v>301</v>
+      </c>
+      <c r="D94" t="s">
+        <v>302</v>
+      </c>
+      <c r="E94">
+        <v>800</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>800</v>
+      </c>
+      <c r="H94" t="s">
+        <v>286</v>
+      </c>
+      <c r="I94" t="s">
+        <v>299</v>
+      </c>
+      <c r="K94" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2">
+        <v>43013</v>
+      </c>
+      <c r="C95" t="s">
+        <v>305</v>
+      </c>
+      <c r="D95" t="s">
+        <v>304</v>
+      </c>
+      <c r="E95">
+        <v>6208</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>6208</v>
+      </c>
+      <c r="H95" t="s">
+        <v>286</v>
+      </c>
+      <c r="I95" t="s">
+        <v>300</v>
+      </c>
+      <c r="K95" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2">
+        <v>43025</v>
+      </c>
+      <c r="C96" t="s">
+        <v>294</v>
+      </c>
+      <c r="D96" t="s">
+        <v>295</v>
+      </c>
+      <c r="E96">
+        <v>48.8</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>48.8</v>
+      </c>
+      <c r="H96" t="s">
+        <v>286</v>
+      </c>
+      <c r="I96" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2">
+        <v>43035</v>
+      </c>
+      <c r="C97" t="s">
+        <v>297</v>
+      </c>
+      <c r="D97" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97">
+        <v>1488</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>1488</v>
+      </c>
+      <c r="H97" t="s">
+        <v>286</v>
+      </c>
+      <c r="I97" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C98" t="s">
+        <v>307</v>
+      </c>
+      <c r="D98" t="s">
+        <v>308</v>
+      </c>
+      <c r="E98">
+        <v>29</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>58</v>
+      </c>
+      <c r="H98" t="s">
+        <v>309</v>
+      </c>
+      <c r="I98" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C99" t="s">
+        <v>312</v>
+      </c>
+      <c r="D99" t="s">
+        <v>308</v>
+      </c>
+      <c r="E99">
+        <v>7</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>7</v>
+      </c>
+      <c r="H99" t="s">
+        <v>309</v>
+      </c>
+      <c r="I99" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C100" t="s">
+        <v>313</v>
+      </c>
+      <c r="D100" t="s">
+        <v>314</v>
+      </c>
+      <c r="E100">
+        <v>2209</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>2209</v>
+      </c>
+      <c r="H100" t="s">
+        <v>315</v>
+      </c>
+      <c r="I100" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C101" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" t="s">
+        <v>316</v>
+      </c>
+      <c r="E101">
+        <v>66.36</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>132.72</v>
+      </c>
+      <c r="H101" t="s">
+        <v>315</v>
+      </c>
+      <c r="I101" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C102" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" t="s">
+        <v>316</v>
+      </c>
+      <c r="E102">
+        <v>143.01</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>143.01</v>
+      </c>
+      <c r="H102" t="s">
+        <v>315</v>
+      </c>
+      <c r="I102" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C103" t="s">
+        <v>319</v>
+      </c>
+      <c r="D103" t="s">
+        <v>316</v>
+      </c>
+      <c r="E103">
+        <v>96.74</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>96.74</v>
+      </c>
+      <c r="H103" t="s">
+        <v>315</v>
+      </c>
+      <c r="I103" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C104" t="s">
+        <v>320</v>
+      </c>
+      <c r="D104" t="s">
+        <v>316</v>
+      </c>
+      <c r="E104">
+        <v>127.88</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>127.88</v>
+      </c>
+      <c r="H104" t="s">
+        <v>315</v>
+      </c>
+      <c r="I104" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C105" t="s">
+        <v>321</v>
+      </c>
+      <c r="D105" t="s">
+        <v>316</v>
+      </c>
+      <c r="E105">
+        <v>83.19</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>83.19</v>
+      </c>
+      <c r="H105" t="s">
+        <v>315</v>
+      </c>
+      <c r="I105" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C106" t="s">
+        <v>322</v>
+      </c>
+      <c r="D106" t="s">
+        <v>324</v>
+      </c>
+      <c r="E106">
+        <v>81.81</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>163.62</v>
+      </c>
+      <c r="H106" t="s">
+        <v>315</v>
+      </c>
+      <c r="I106" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C107" t="s">
+        <v>323</v>
+      </c>
+      <c r="D107" t="s">
+        <v>325</v>
+      </c>
+      <c r="E107">
+        <v>279</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>279</v>
+      </c>
+      <c r="H107" t="s">
+        <v>315</v>
+      </c>
+      <c r="I107" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C108" t="s">
+        <v>326</v>
+      </c>
+      <c r="D108" t="s">
+        <v>327</v>
+      </c>
+      <c r="E108">
+        <v>23.31</v>
+      </c>
+      <c r="F108">
+        <v>17</v>
+      </c>
+      <c r="G108">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>396.27</v>
+      </c>
+      <c r="H108" t="s">
+        <v>315</v>
+      </c>
+      <c r="I108" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C109" t="s">
+        <v>328</v>
+      </c>
+      <c r="D109" t="s">
+        <v>327</v>
+      </c>
+      <c r="E109">
+        <v>24</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>24</v>
+      </c>
+      <c r="H109" t="s">
+        <v>329</v>
+      </c>
+      <c r="I109" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C110" t="s">
+        <v>330</v>
+      </c>
+      <c r="D110" t="s">
+        <v>327</v>
+      </c>
+      <c r="E110">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>198.5</v>
+      </c>
+      <c r="H110" t="s">
+        <v>315</v>
+      </c>
+      <c r="I110" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C111" t="s">
+        <v>337</v>
+      </c>
+      <c r="D111" t="s">
+        <v>336</v>
+      </c>
+      <c r="E111">
+        <v>1265.4000000000001</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>1265.4000000000001</v>
+      </c>
+      <c r="H111" t="s">
+        <v>315</v>
+      </c>
+      <c r="I111" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C112" t="s">
+        <v>339</v>
+      </c>
+      <c r="D112" t="s">
+        <v>340</v>
+      </c>
+      <c r="E112">
+        <v>1612</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>1612</v>
+      </c>
+      <c r="H112" t="s">
+        <v>315</v>
+      </c>
+      <c r="I112" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C113" t="s">
+        <v>342</v>
+      </c>
+      <c r="D113" t="s">
+        <v>343</v>
+      </c>
+      <c r="E113">
+        <v>553.20000000000005</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>553.20000000000005</v>
+      </c>
+      <c r="H113" t="s">
+        <v>315</v>
+      </c>
+      <c r="I113" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C114" t="s">
+        <v>344</v>
+      </c>
+      <c r="D114" t="s">
+        <v>345</v>
+      </c>
+      <c r="E114">
+        <v>1870</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>1870</v>
+      </c>
+      <c r="H114" t="s">
+        <v>315</v>
+      </c>
+      <c r="I114" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C115" t="s">
+        <v>348</v>
+      </c>
+      <c r="D115" t="s">
+        <v>347</v>
+      </c>
+      <c r="E115">
+        <v>619.5</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="G115">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>2478</v>
+      </c>
+      <c r="H115" t="s">
+        <v>315</v>
+      </c>
+      <c r="I115" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C116" t="s">
+        <v>351</v>
+      </c>
+      <c r="D116" t="s">
+        <v>350</v>
+      </c>
+      <c r="E116">
+        <v>188</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>188</v>
+      </c>
+      <c r="H116" t="s">
+        <v>315</v>
+      </c>
+      <c r="I116" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C117" t="s">
+        <v>352</v>
+      </c>
+      <c r="D117" t="s">
+        <v>353</v>
+      </c>
+      <c r="E117">
+        <v>97.89</v>
+      </c>
+      <c r="F117">
+        <v>7</v>
+      </c>
+      <c r="G117">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>685.23</v>
+      </c>
+      <c r="H117" t="s">
+        <v>315</v>
+      </c>
+      <c r="I117" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2">
+        <v>43060</v>
+      </c>
+      <c r="C118" t="s">
+        <v>362</v>
+      </c>
+      <c r="D118" t="s">
+        <v>327</v>
+      </c>
+      <c r="E118">
+        <v>17.02</v>
+      </c>
+      <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="G118">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>68.08</v>
+      </c>
+      <c r="H118" t="s">
+        <v>315</v>
+      </c>
+      <c r="I118" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2">
+        <v>43060</v>
+      </c>
+      <c r="C119" t="s">
+        <v>361</v>
+      </c>
+      <c r="D119" t="s">
+        <v>327</v>
+      </c>
+      <c r="E119">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="F119">
+        <v>22</v>
+      </c>
+      <c r="G119">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>837.09999999999991</v>
+      </c>
+      <c r="H119" t="s">
+        <v>315</v>
+      </c>
+      <c r="I119" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2">
+        <v>43060</v>
+      </c>
+      <c r="C120" t="s">
+        <v>360</v>
+      </c>
+      <c r="D120" t="s">
+        <v>327</v>
+      </c>
+      <c r="E120">
+        <v>38.24</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>38.24</v>
+      </c>
+      <c r="H120" t="s">
+        <v>315</v>
+      </c>
+      <c r="I120" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2">
+        <v>43060</v>
+      </c>
+      <c r="C121" t="s">
+        <v>356</v>
+      </c>
+      <c r="D121" t="s">
+        <v>327</v>
+      </c>
+      <c r="E121">
+        <v>22.75</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>22.75</v>
+      </c>
+      <c r="H121" t="s">
+        <v>315</v>
+      </c>
+      <c r="I121" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2">
+        <v>43060</v>
+      </c>
+      <c r="C122" t="s">
+        <v>357</v>
+      </c>
+      <c r="D122" t="s">
+        <v>327</v>
+      </c>
+      <c r="E122">
+        <v>18.93</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>18.93</v>
+      </c>
+      <c r="H122" t="s">
+        <v>315</v>
+      </c>
+      <c r="I122" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2">
+        <v>43060</v>
+      </c>
+      <c r="C123" t="s">
+        <v>358</v>
+      </c>
+      <c r="D123" t="s">
+        <v>327</v>
+      </c>
+      <c r="E123">
+        <v>14.15</v>
+      </c>
+      <c r="F123">
+        <v>5</v>
+      </c>
+      <c r="G123">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>70.75</v>
+      </c>
+      <c r="H123" t="s">
+        <v>315</v>
+      </c>
+      <c r="I123" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2">
+        <v>43060</v>
+      </c>
+      <c r="C124" t="s">
+        <v>359</v>
+      </c>
+      <c r="E124">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>32.520000000000003</v>
+      </c>
+      <c r="H124" t="s">
+        <v>315</v>
+      </c>
+      <c r="I124" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2">
+        <v>43061</v>
+      </c>
+      <c r="C125" t="s">
+        <v>369</v>
+      </c>
+      <c r="D125" t="s">
+        <v>308</v>
+      </c>
+      <c r="E125">
+        <v>263</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>263</v>
+      </c>
+      <c r="H125" t="s">
+        <v>286</v>
+      </c>
+      <c r="I125" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2">
+        <v>43061</v>
+      </c>
+      <c r="C126" t="s">
+        <v>370</v>
+      </c>
+      <c r="D126" t="s">
+        <v>308</v>
+      </c>
+      <c r="E126">
+        <v>20.5</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>41</v>
+      </c>
+      <c r="H126" t="s">
+        <v>286</v>
+      </c>
+      <c r="I126" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2">
+        <v>43064</v>
+      </c>
+      <c r="C127" t="s">
+        <v>371</v>
+      </c>
+      <c r="D127" t="s">
+        <v>372</v>
+      </c>
+      <c r="E127">
+        <v>56</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" s="4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>56</v>
+      </c>
+      <c r="H127" t="s">
+        <v>329</v>
+      </c>
+      <c r="I127" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2">
+        <v>43064</v>
+      </c>
+      <c r="C128" t="s">
+        <v>373</v>
+      </c>
+      <c r="D128" t="s">
+        <v>374</v>
+      </c>
+      <c r="E128">
+        <v>24</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" s="4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>24</v>
+      </c>
+      <c r="H128" t="s">
+        <v>329</v>
+      </c>
+      <c r="I128" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2">
+        <v>43064</v>
+      </c>
+      <c r="C129" t="s">
+        <v>373</v>
+      </c>
+      <c r="D129" t="s">
+        <v>374</v>
+      </c>
+      <c r="E129">
+        <v>6</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129" s="4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>18</v>
+      </c>
+      <c r="H129" t="s">
+        <v>376</v>
+      </c>
+      <c r="I129" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2">
+        <v>43065</v>
+      </c>
+      <c r="C130" t="s">
+        <v>377</v>
+      </c>
+      <c r="D130" t="s">
+        <v>310</v>
+      </c>
+      <c r="E130">
+        <v>6002</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" s="4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>6002</v>
+      </c>
+      <c r="H130" t="s">
+        <v>286</v>
+      </c>
+      <c r="I130" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2">
+        <v>43065</v>
+      </c>
+      <c r="C131" t="s">
+        <v>380</v>
+      </c>
+      <c r="D131" t="s">
+        <v>310</v>
+      </c>
+      <c r="E131">
+        <v>1480</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" s="4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>1480</v>
+      </c>
+      <c r="H131" t="s">
+        <v>286</v>
+      </c>
+      <c r="I131" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2">
+        <v>43065</v>
+      </c>
+      <c r="C132" t="s">
+        <v>379</v>
+      </c>
+      <c r="D132" t="s">
+        <v>310</v>
+      </c>
+      <c r="E132">
+        <v>17</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" s="4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>17</v>
+      </c>
+      <c r="H132" t="s">
+        <v>286</v>
+      </c>
+      <c r="I132" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2">
+        <v>43065</v>
+      </c>
+      <c r="C133" t="s">
+        <v>393</v>
+      </c>
+      <c r="D133" t="s">
+        <v>394</v>
+      </c>
+      <c r="E133">
+        <v>90</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" s="4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>90</v>
+      </c>
+      <c r="H133" t="s">
+        <v>376</v>
+      </c>
+      <c r="I133" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2">
+        <v>43065</v>
+      </c>
+      <c r="C134" t="s">
+        <v>395</v>
+      </c>
+      <c r="D134" t="s">
+        <v>396</v>
+      </c>
+      <c r="E134">
+        <v>280</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" s="4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>280</v>
+      </c>
+      <c r="H134" t="s">
+        <v>376</v>
+      </c>
+      <c r="I134" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2">
+        <v>43068</v>
+      </c>
+      <c r="C135" t="s">
+        <v>363</v>
+      </c>
+      <c r="D135" t="s">
+        <v>364</v>
+      </c>
+      <c r="E135">
+        <v>100</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>100</v>
+      </c>
+      <c r="H135" t="s">
+        <v>315</v>
+      </c>
+      <c r="I135" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2">
+        <v>43068</v>
+      </c>
+      <c r="C136" t="s">
+        <v>366</v>
+      </c>
+      <c r="D136" t="s">
+        <v>368</v>
+      </c>
+      <c r="E136">
+        <v>28</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>28</v>
+      </c>
+      <c r="H136" t="s">
+        <v>315</v>
+      </c>
+      <c r="I136" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2">
+        <v>43070</v>
+      </c>
+      <c r="C137" t="s">
+        <v>381</v>
+      </c>
+      <c r="D137" t="s">
+        <v>382</v>
+      </c>
+      <c r="E137">
+        <v>182</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>182</v>
+      </c>
+      <c r="H137" t="s">
+        <v>286</v>
+      </c>
+      <c r="I137" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2">
+        <v>43071</v>
+      </c>
+      <c r="C138" t="s">
+        <v>383</v>
+      </c>
+      <c r="D138" t="s">
+        <v>384</v>
+      </c>
+      <c r="E138">
+        <v>157</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" s="4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>157</v>
+      </c>
+      <c r="H138" t="s">
+        <v>329</v>
+      </c>
+      <c r="I138" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2">
+        <v>43072</v>
+      </c>
+      <c r="C139" t="s">
+        <v>385</v>
+      </c>
+      <c r="D139" t="s">
+        <v>386</v>
+      </c>
+      <c r="E139">
+        <v>1189.5999999999999</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" s="4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>1189.5999999999999</v>
+      </c>
+      <c r="H139" t="s">
+        <v>286</v>
+      </c>
+      <c r="I139" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2">
+        <v>43072</v>
+      </c>
+      <c r="C140" t="s">
+        <v>387</v>
+      </c>
+      <c r="D140" t="s">
+        <v>327</v>
+      </c>
+      <c r="E140">
+        <v>234.3</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" s="4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>468.6</v>
+      </c>
+      <c r="H140" t="s">
+        <v>286</v>
+      </c>
+      <c r="I140" t="s">
+        <v>388</v>
+      </c>
+      <c r="N140">
+        <f>96.88+16</f>
+        <v>112.88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2">
+        <v>43072</v>
+      </c>
+      <c r="C141" t="s">
+        <v>391</v>
+      </c>
+      <c r="D141" t="s">
+        <v>390</v>
+      </c>
+      <c r="E141">
+        <v>112.88</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" s="4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>225.76</v>
+      </c>
+      <c r="H141" t="s">
+        <v>286</v>
+      </c>
+      <c r="I141" t="s">
+        <v>389</v>
+      </c>
+      <c r="N141">
+        <f>263.24+18</f>
+        <v>281.24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2">
+        <v>43072</v>
+      </c>
+      <c r="C142" t="s">
+        <v>392</v>
+      </c>
+      <c r="D142" t="s">
+        <v>390</v>
+      </c>
+      <c r="E142">
+        <v>281.24</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" s="4">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>281.24</v>
+      </c>
+      <c r="H142" t="s">
+        <v>286</v>
+      </c>
+      <c r="I142" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4079,9 +6587,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6" style="9" customWidth="1"/>
+    <col min="2" max="2" width="60.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/buyDetails.xlsx
+++ b/buyDetails.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="472">
   <si>
     <t>设计费定金</t>
   </si>
@@ -1464,6 +1464,170 @@
   </si>
   <si>
     <t>张勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米缸、收纳盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M吸尘抹布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝家洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛凳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有所原创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺灯空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活性炭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔓诗兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外面小店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电钻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋套等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洁剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威猛先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾桶+洗衣液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗头洗澡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房用纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索尼音响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心心相印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马尔姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧床送货安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅装饰画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美饰丽家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX招行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗网，纱窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价1150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1472,7 +1636,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1516,34 +1680,69 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1604,33 +1803,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1646,16 +1819,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K142" totalsRowShown="0">
-  <autoFilter ref="A1:K142"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K165" totalsRowShown="0">
+  <autoFilter ref="A1:K165"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="列1"/>
-    <tableColumn id="2" name="列2" dataDxfId="6"/>
+    <tableColumn id="1" name="列1" dataDxfId="3"/>
+    <tableColumn id="2" name="列2" dataDxfId="4"/>
     <tableColumn id="3" name="列3"/>
     <tableColumn id="4" name="列4"/>
-    <tableColumn id="5" name="列5"/>
-    <tableColumn id="6" name="列6"/>
-    <tableColumn id="7" name="列7" dataDxfId="5">
+    <tableColumn id="5" name="列5" dataDxfId="2"/>
+    <tableColumn id="6" name="列6" dataDxfId="1"/>
+    <tableColumn id="7" name="列7" dataDxfId="0">
       <calculatedColumnFormula>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="列8"/>
@@ -1668,11 +1841,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:B14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:B14" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:B14"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="列2" dataDxfId="1"/>
-    <tableColumn id="1" name="积成世家" dataDxfId="2"/>
+    <tableColumn id="2" name="列2" dataDxfId="7"/>
+    <tableColumn id="1" name="积成世家" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1682,7 +1855,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A16:B32" totalsRowShown="0">
   <autoFilter ref="A16:B32"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="列1" dataDxfId="0"/>
+    <tableColumn id="1" name="列1" dataDxfId="5"/>
     <tableColumn id="2" name="张勇"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2023,15 +2196,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -2068,13 +2248,13 @@
       <c r="K1" t="s">
         <v>259</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="9">
         <f>SUM(表1[列7])</f>
-        <v>328627.29009999993</v>
+        <v>335925.30009999988</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -2086,13 +2266,13 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="9">
         <v>2000</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2000</v>
       </c>
@@ -2110,7 +2290,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -2122,13 +2302,13 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>300</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>300</v>
       </c>
@@ -2146,7 +2326,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -2158,13 +2338,13 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>363</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>363</v>
       </c>
@@ -2182,7 +2362,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -2194,13 +2374,13 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>7330</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>7330</v>
       </c>
@@ -2218,7 +2398,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -2230,13 +2410,13 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>1000</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1000</v>
       </c>
@@ -2254,7 +2434,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="2">
@@ -2266,13 +2446,13 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>1138</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>6828</v>
       </c>
@@ -2290,7 +2470,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -2302,13 +2482,13 @@
       <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>1986</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1986</v>
       </c>
@@ -2326,7 +2506,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="2">
@@ -2338,13 +2518,13 @@
       <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>322</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>966</v>
       </c>
@@ -2362,7 +2542,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="2">
@@ -2374,13 +2554,13 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>3375.6667000000002</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <v>3</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>10127.000100000001</v>
       </c>
@@ -2398,7 +2578,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -2410,13 +2590,13 @@
       <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>2680</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2680</v>
       </c>
@@ -2434,7 +2614,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="2">
@@ -2446,13 +2626,13 @@
       <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>2200</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2200</v>
       </c>
@@ -2470,7 +2650,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="2">
@@ -2482,13 +2662,13 @@
       <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <v>500</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>500</v>
       </c>
@@ -2506,7 +2686,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="2">
@@ -2518,13 +2698,13 @@
       <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <v>1249</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1249</v>
       </c>
@@ -2542,7 +2722,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -2554,13 +2734,13 @@
       <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
         <v>1549</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1549</v>
       </c>
@@ -2578,7 +2758,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="2">
@@ -2590,13 +2770,13 @@
       <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="9">
         <v>1799</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1799</v>
       </c>
@@ -2614,7 +2794,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="2">
@@ -2626,13 +2806,13 @@
       <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="9">
         <v>7400</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>7400</v>
       </c>
@@ -2650,7 +2830,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="2">
@@ -2662,13 +2842,13 @@
       <c r="D18" t="s">
         <v>59</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <v>500</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>500</v>
       </c>
@@ -2686,7 +2866,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="2">
@@ -2698,13 +2878,13 @@
       <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <v>29500</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>29500</v>
       </c>
@@ -2722,7 +2902,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="2">
@@ -2734,13 +2914,13 @@
       <c r="D20" t="s">
         <v>63</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="9">
         <v>3800</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>3800</v>
       </c>
@@ -2758,7 +2938,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="2">
@@ -2770,13 +2950,13 @@
       <c r="D21" t="s">
         <v>52</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="9">
         <v>58</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>58</v>
       </c>
@@ -2794,7 +2974,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="2">
@@ -2806,13 +2986,13 @@
       <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="9">
         <v>30</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>30</v>
       </c>
@@ -2830,7 +3010,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="2">
@@ -2842,13 +3022,13 @@
       <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="9">
         <v>2000</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2000</v>
       </c>
@@ -2866,7 +3046,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="2">
@@ -2878,13 +3058,13 @@
       <c r="D24" t="s">
         <v>77</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="9">
         <v>2000</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2000</v>
       </c>
@@ -2902,7 +3082,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="2">
@@ -2914,13 +3094,13 @@
       <c r="D25" t="s">
         <v>81</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="9">
         <v>2247</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2247</v>
       </c>
@@ -2938,7 +3118,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="2">
@@ -2950,13 +3130,13 @@
       <c r="D26" t="s">
         <v>85</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="9">
         <v>2000</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2000</v>
       </c>
@@ -2974,7 +3154,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="2">
@@ -2986,13 +3166,13 @@
       <c r="D27" t="s">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="9">
         <v>4640</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>4640</v>
       </c>
@@ -3004,7 +3184,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="2">
@@ -3016,13 +3196,13 @@
       <c r="D28" t="s">
         <v>90</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="9">
         <v>2000</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2000</v>
       </c>
@@ -3040,7 +3220,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="2">
@@ -3052,13 +3232,13 @@
       <c r="D29" t="s">
         <v>95</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="9">
         <v>31</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>31</v>
       </c>
@@ -3070,7 +3250,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="2">
@@ -3082,13 +3262,13 @@
       <c r="D30" t="s">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="9">
         <v>4640</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>4640</v>
       </c>
@@ -3100,7 +3280,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="2">
@@ -3112,13 +3292,13 @@
       <c r="D31" t="s">
         <v>98</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="9">
         <v>2000</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2000</v>
       </c>
@@ -3130,7 +3310,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="2">
@@ -3142,13 +3322,13 @@
       <c r="D32" t="s">
         <v>98</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="9">
         <v>137</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>137</v>
       </c>
@@ -3163,7 +3343,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="2">
@@ -3175,13 +3355,13 @@
       <c r="D33" t="s">
         <v>10</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="9">
         <v>363</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>363</v>
       </c>
@@ -3193,7 +3373,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="2">
@@ -3205,13 +3385,13 @@
       <c r="D34" t="s">
         <v>103</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="9">
         <v>18400</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>18400</v>
       </c>
@@ -3223,7 +3403,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="2">
@@ -3235,13 +3415,13 @@
       <c r="D35" t="s">
         <v>106</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="9">
         <v>949.3</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>949.3</v>
       </c>
@@ -3256,7 +3436,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="2">
@@ -3268,13 +3448,13 @@
       <c r="D36" t="s">
         <v>111</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="9">
         <v>869</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>869</v>
       </c>
@@ -3289,7 +3469,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="2">
@@ -3301,13 +3481,13 @@
       <c r="D37" t="s">
         <v>114</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="9">
         <v>177.49</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>177.49</v>
       </c>
@@ -3319,7 +3499,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="2">
@@ -3331,13 +3511,13 @@
       <c r="D38" t="s">
         <v>117</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="9">
         <v>3000</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>3000</v>
       </c>
@@ -3352,7 +3532,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="2">
@@ -3364,13 +3544,13 @@
       <c r="D39" t="s">
         <v>121</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="9">
         <v>1600</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1600</v>
       </c>
@@ -3385,7 +3565,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="2">
@@ -3397,13 +3577,13 @@
       <c r="D40" t="s">
         <v>124</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="9">
         <v>550</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>550</v>
       </c>
@@ -3418,7 +3598,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="2">
@@ -3430,13 +3610,13 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="9">
         <v>1000</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1000</v>
       </c>
@@ -3451,7 +3631,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="2">
@@ -3463,13 +3643,13 @@
       <c r="D42" t="s">
         <v>131</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="9">
         <v>699</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>699</v>
       </c>
@@ -3484,7 +3664,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="2">
@@ -3496,13 +3676,13 @@
       <c r="D43" t="s">
         <v>135</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="9">
         <v>680</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>680</v>
       </c>
@@ -3517,7 +3697,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="2">
@@ -3529,13 +3709,13 @@
       <c r="D44" t="s">
         <v>103</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="9">
         <v>25900</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>25900</v>
       </c>
@@ -3550,7 +3730,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="2">
@@ -3562,13 +3742,13 @@
       <c r="D45" t="s">
         <v>143</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="9">
         <v>-12178.5</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>-12178.5</v>
       </c>
@@ -3580,7 +3760,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="2">
@@ -3592,13 +3772,13 @@
       <c r="D46" t="s">
         <v>117</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="9">
         <v>7800</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
+      <c r="F46" s="9">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>7800</v>
       </c>
@@ -3613,7 +3793,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="2">
@@ -3625,13 +3805,13 @@
       <c r="D47" t="s">
         <v>150</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="9">
         <v>1989.68</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
+      <c r="F47" s="9">
+        <v>1</v>
+      </c>
+      <c r="G47" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1989.68</v>
       </c>
@@ -3646,7 +3826,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="2">
@@ -3658,13 +3838,13 @@
       <c r="D48" t="s">
         <v>154</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="9">
         <v>161.19</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>161.19</v>
       </c>
@@ -3679,7 +3859,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="2">
@@ -3691,13 +3871,13 @@
       <c r="D49" t="s">
         <v>157</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="9">
         <v>80</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
+      <c r="F49" s="9">
+        <v>1</v>
+      </c>
+      <c r="G49" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>80</v>
       </c>
@@ -3712,7 +3892,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50">
+      <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" s="2">
@@ -3724,13 +3904,13 @@
       <c r="D50" t="s">
         <v>162</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="9">
         <v>296</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>296</v>
       </c>
@@ -3745,7 +3925,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="2">
@@ -3757,13 +3937,13 @@
       <c r="D51" t="s">
         <v>166</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="9">
         <v>400</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
+      <c r="F51" s="9">
+        <v>1</v>
+      </c>
+      <c r="G51" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>400</v>
       </c>
@@ -3778,7 +3958,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52">
+      <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="2">
@@ -3790,13 +3970,13 @@
       <c r="D52" t="s">
         <v>166</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="9">
         <v>80</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="9">
         <v>3</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>240</v>
       </c>
@@ -3811,7 +3991,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53">
+      <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="2">
@@ -3823,13 +4003,13 @@
       <c r="D53" t="s">
         <v>172</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="9">
         <v>166</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
+      <c r="F53" s="9">
+        <v>1</v>
+      </c>
+      <c r="G53" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>166</v>
       </c>
@@ -3844,7 +4024,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54">
+      <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="2">
@@ -3856,13 +4036,13 @@
       <c r="D54" t="s">
         <v>42</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="9">
         <v>16186</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+      <c r="G54" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>16186</v>
       </c>
@@ -3877,7 +4057,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55">
+      <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="2">
@@ -3889,13 +4069,13 @@
       <c r="D55" t="s">
         <v>177</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="9">
         <v>1847</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+      <c r="G55" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1847</v>
       </c>
@@ -3910,7 +4090,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56">
+      <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="2">
@@ -3922,13 +4102,13 @@
       <c r="D56" t="s">
         <v>180</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="9">
         <v>500</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
+      <c r="F56" s="9">
+        <v>1</v>
+      </c>
+      <c r="G56" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>500</v>
       </c>
@@ -3943,7 +4123,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57">
+      <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="2">
@@ -3955,13 +4135,13 @@
       <c r="D57" t="s">
         <v>183</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="9">
         <v>70</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>70</v>
       </c>
@@ -3976,7 +4156,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58">
+      <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" s="2">
@@ -3988,13 +4168,13 @@
       <c r="D58" t="s">
         <v>63</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="9">
         <v>245</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="9">
+        <v>1</v>
+      </c>
+      <c r="G58" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>245</v>
       </c>
@@ -4009,7 +4189,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59">
+      <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" s="2">
@@ -4021,13 +4201,13 @@
       <c r="D59" t="s">
         <v>188</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="9">
         <v>240</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
+      <c r="F59" s="9">
+        <v>1</v>
+      </c>
+      <c r="G59" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>240</v>
       </c>
@@ -4042,7 +4222,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60">
+      <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="2">
@@ -4054,13 +4234,13 @@
       <c r="D60" t="s">
         <v>190</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="9">
         <v>2245</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="9">
+        <v>1</v>
+      </c>
+      <c r="G60" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2245</v>
       </c>
@@ -4075,7 +4255,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61">
+      <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="2">
@@ -4087,13 +4267,13 @@
       <c r="D61" t="s">
         <v>192</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="9">
         <v>1800</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="9">
+        <v>1</v>
+      </c>
+      <c r="G61" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1800</v>
       </c>
@@ -4108,7 +4288,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62">
+      <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="2">
@@ -4120,13 +4300,13 @@
       <c r="D62" t="s">
         <v>196</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="9">
         <v>2285</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
+      <c r="F62" s="9">
+        <v>1</v>
+      </c>
+      <c r="G62" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2285</v>
       </c>
@@ -4141,7 +4321,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63">
+      <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="2">
@@ -4153,13 +4333,13 @@
       <c r="D63" t="s">
         <v>199</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="9">
         <v>1343</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+      <c r="G63" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1343</v>
       </c>
@@ -4174,7 +4354,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64">
+      <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="2">
@@ -4186,13 +4366,13 @@
       <c r="D64" t="s">
         <v>201</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="9">
         <v>6420</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
+      <c r="F64" s="9">
+        <v>1</v>
+      </c>
+      <c r="G64" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>6420</v>
       </c>
@@ -4207,7 +4387,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65">
+      <c r="A65" s="9">
         <v>64</v>
       </c>
       <c r="B65" s="2">
@@ -4219,13 +4399,13 @@
       <c r="D65" t="s">
         <v>205</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="9">
         <v>3099</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
+      <c r="F65" s="9">
+        <v>1</v>
+      </c>
+      <c r="G65" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>3099</v>
       </c>
@@ -4240,7 +4420,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66">
+      <c r="A66" s="9">
         <v>65</v>
       </c>
       <c r="B66" s="2">
@@ -4252,13 +4432,13 @@
       <c r="D66" t="s">
         <v>207</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="9">
         <v>300</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
+      <c r="F66" s="9">
+        <v>1</v>
+      </c>
+      <c r="G66" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>300</v>
       </c>
@@ -4273,7 +4453,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A67">
+      <c r="A67" s="9">
         <v>66</v>
       </c>
       <c r="B67" s="2">
@@ -4285,13 +4465,13 @@
       <c r="D67" t="s">
         <v>167</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="9">
         <v>100</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
+      <c r="F67" s="9">
+        <v>1</v>
+      </c>
+      <c r="G67" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>100</v>
       </c>
@@ -4303,7 +4483,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A68">
+      <c r="A68" s="9">
         <v>67</v>
       </c>
       <c r="B68" s="2">
@@ -4315,13 +4495,13 @@
       <c r="D68" t="s">
         <v>212</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="9">
         <v>2900</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
+      <c r="F68" s="9">
+        <v>1</v>
+      </c>
+      <c r="G68" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2900</v>
       </c>
@@ -4336,7 +4516,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A69">
+      <c r="A69" s="9">
         <v>68</v>
       </c>
       <c r="B69" s="2">
@@ -4348,13 +4528,13 @@
       <c r="D69" t="s">
         <v>216</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="9">
         <v>250</v>
       </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
+      <c r="F69" s="9">
+        <v>1</v>
+      </c>
+      <c r="G69" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>250</v>
       </c>
@@ -4366,7 +4546,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70">
+      <c r="A70" s="9">
         <v>69</v>
       </c>
       <c r="B70" s="2">
@@ -4378,13 +4558,13 @@
       <c r="D70" t="s">
         <v>216</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="9">
         <v>350</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+      <c r="G70" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>350</v>
       </c>
@@ -4396,7 +4576,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71">
+      <c r="A71" s="9">
         <v>70</v>
       </c>
       <c r="B71" s="2">
@@ -4408,13 +4588,13 @@
       <c r="D71" t="s">
         <v>216</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="9">
         <v>300</v>
       </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
+      <c r="F71" s="9">
+        <v>1</v>
+      </c>
+      <c r="G71" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>300</v>
       </c>
@@ -4426,7 +4606,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A72">
+      <c r="A72" s="9">
         <v>71</v>
       </c>
       <c r="B72" s="2">
@@ -4438,13 +4618,13 @@
       <c r="D72" t="s">
         <v>192</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="9">
         <v>1800</v>
       </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
+      <c r="F72" s="9">
+        <v>1</v>
+      </c>
+      <c r="G72" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1800</v>
       </c>
@@ -4453,7 +4633,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A73">
+      <c r="A73" s="9">
         <v>72</v>
       </c>
       <c r="B73" s="2">
@@ -4465,13 +4645,13 @@
       <c r="D73" t="s">
         <v>221</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="9">
         <v>330</v>
       </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
+      <c r="F73" s="9">
+        <v>1</v>
+      </c>
+      <c r="G73" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>330</v>
       </c>
@@ -4480,7 +4660,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74">
+      <c r="A74" s="9">
         <v>73</v>
       </c>
       <c r="B74" s="2">
@@ -4492,13 +4672,13 @@
       <c r="D74" t="s">
         <v>398</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="9">
         <v>951</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="9">
         <v>2</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1902</v>
       </c>
@@ -4510,7 +4690,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75">
+      <c r="A75" s="9">
         <v>74</v>
       </c>
       <c r="B75" s="2">
@@ -4522,13 +4702,13 @@
       <c r="D75" t="s">
         <v>52</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="9">
         <v>799</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="9">
         <v>2</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1598</v>
       </c>
@@ -4540,7 +4720,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A76">
+      <c r="A76" s="9">
         <v>75</v>
       </c>
       <c r="B76" s="2">
@@ -4552,13 +4732,13 @@
       <c r="D76" t="s">
         <v>103</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="9">
         <v>16100</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
+      <c r="F76" s="9">
+        <v>1</v>
+      </c>
+      <c r="G76" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>16100</v>
       </c>
@@ -4570,7 +4750,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A77">
+      <c r="A77" s="9">
         <v>76</v>
       </c>
       <c r="B77" s="2">
@@ -4582,13 +4762,13 @@
       <c r="D77" t="s">
         <v>90</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="9">
         <v>44800</v>
       </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
+      <c r="F77" s="9">
+        <v>1</v>
+      </c>
+      <c r="G77" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>44800</v>
       </c>
@@ -4600,7 +4780,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78">
+      <c r="A78" s="9">
         <v>77</v>
       </c>
       <c r="B78" s="2">
@@ -4612,13 +4792,13 @@
       <c r="D78" t="s">
         <v>229</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="9">
         <v>7000</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
+      <c r="F78" s="9">
+        <v>1</v>
+      </c>
+      <c r="G78" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>7000</v>
       </c>
@@ -4630,7 +4810,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A79">
+      <c r="A79" s="9">
         <v>78</v>
       </c>
       <c r="B79" s="2">
@@ -4642,13 +4822,13 @@
       <c r="D79" t="s">
         <v>231</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="9">
         <v>250</v>
       </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
+      <c r="F79" s="9">
+        <v>1</v>
+      </c>
+      <c r="G79" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>250</v>
       </c>
@@ -4657,7 +4837,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A80">
+      <c r="A80" s="9">
         <v>79</v>
       </c>
       <c r="B80" s="2">
@@ -4669,13 +4849,13 @@
       <c r="D80" t="s">
         <v>233</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="9">
         <v>450</v>
       </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
+      <c r="F80" s="9">
+        <v>1</v>
+      </c>
+      <c r="G80" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>450</v>
       </c>
@@ -4687,7 +4867,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A81">
+      <c r="A81" s="9">
         <v>80</v>
       </c>
       <c r="B81" s="2">
@@ -4699,13 +4879,13 @@
       <c r="D81" t="s">
         <v>236</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="9">
         <v>1446.56</v>
       </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
+      <c r="F81" s="9">
+        <v>1</v>
+      </c>
+      <c r="G81" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1446.56</v>
       </c>
@@ -4717,7 +4897,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A82">
+      <c r="A82" s="9">
         <v>81</v>
       </c>
       <c r="B82" s="2">
@@ -4729,13 +4909,13 @@
       <c r="D82" t="s">
         <v>22</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="9">
         <v>614.44000000000005</v>
       </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
+      <c r="F82" s="9">
+        <v>1</v>
+      </c>
+      <c r="G82" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>614.44000000000005</v>
       </c>
@@ -4747,7 +4927,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A83">
+      <c r="A83" s="9">
         <v>82</v>
       </c>
       <c r="B83" s="2">
@@ -4759,13 +4939,13 @@
       <c r="D83" t="s">
         <v>236</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="9">
         <v>1680</v>
       </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
+      <c r="F83" s="9">
+        <v>1</v>
+      </c>
+      <c r="G83" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1680</v>
       </c>
@@ -4777,7 +4957,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A84">
+      <c r="A84" s="9">
         <v>83</v>
       </c>
       <c r="B84" s="2">
@@ -4789,13 +4969,13 @@
       <c r="D84" t="s">
         <v>22</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="9">
         <v>472</v>
       </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
+      <c r="F84" s="9">
+        <v>1</v>
+      </c>
+      <c r="G84" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>472</v>
       </c>
@@ -4807,7 +4987,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A85">
+      <c r="A85" s="9">
         <v>84</v>
       </c>
       <c r="B85" s="2">
@@ -4819,13 +4999,13 @@
       <c r="D85" t="s">
         <v>77</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="9">
         <v>6104</v>
       </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
+      <c r="F85" s="9">
+        <v>1</v>
+      </c>
+      <c r="G85" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>6104</v>
       </c>
@@ -4840,7 +5020,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A86">
+      <c r="A86" s="9">
         <v>85</v>
       </c>
       <c r="B86" s="2">
@@ -4852,13 +5032,13 @@
       <c r="D86" t="s">
         <v>73</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="9">
         <v>7876</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
+      <c r="F86" s="9">
+        <v>1</v>
+      </c>
+      <c r="G86" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>7876</v>
       </c>
@@ -4876,7 +5056,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A87">
+      <c r="A87" s="9">
         <v>86</v>
       </c>
       <c r="B87" s="2">
@@ -4888,13 +5068,13 @@
       <c r="D87" t="s">
         <v>73</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="9">
         <v>-300</v>
       </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
+      <c r="F87" s="9">
+        <v>1</v>
+      </c>
+      <c r="G87" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>-300</v>
       </c>
@@ -4909,7 +5089,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A88">
+      <c r="A88" s="9">
         <v>87</v>
       </c>
       <c r="B88" s="2">
@@ -4921,13 +5101,13 @@
       <c r="D88" t="s">
         <v>280</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="9">
         <v>-90</v>
       </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
+      <c r="F88" s="9">
+        <v>1</v>
+      </c>
+      <c r="G88" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>-90</v>
       </c>
@@ -4942,7 +5122,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A89">
+      <c r="A89" s="9">
         <v>88</v>
       </c>
       <c r="B89" s="2">
@@ -4954,13 +5134,13 @@
       <c r="D89" t="s">
         <v>292</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="9">
         <v>200</v>
       </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
+      <c r="F89" s="9">
+        <v>1</v>
+      </c>
+      <c r="G89" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>200</v>
       </c>
@@ -4975,7 +5155,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A90">
+      <c r="A90" s="9">
         <v>89</v>
       </c>
       <c r="B90" s="2">
@@ -4987,13 +5167,13 @@
       <c r="D90" t="s">
         <v>283</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="9">
         <v>4349</v>
       </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
+      <c r="F90" s="9">
+        <v>1</v>
+      </c>
+      <c r="G90" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>4349</v>
       </c>
@@ -5005,7 +5185,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A91">
+      <c r="A91" s="9">
         <v>90</v>
       </c>
       <c r="B91" s="2">
@@ -5017,13 +5197,13 @@
       <c r="D91" t="s">
         <v>285</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="9">
         <v>159</v>
       </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
+      <c r="F91" s="9">
+        <v>1</v>
+      </c>
+      <c r="G91" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>159</v>
       </c>
@@ -5035,7 +5215,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A92">
+      <c r="A92" s="9">
         <v>91</v>
       </c>
       <c r="B92" s="2">
@@ -5047,13 +5227,13 @@
       <c r="D92" t="s">
         <v>288</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="9">
         <v>899</v>
       </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
+      <c r="F92" s="9">
+        <v>1</v>
+      </c>
+      <c r="G92" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>899</v>
       </c>
@@ -5065,7 +5245,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A93">
+      <c r="A93" s="9">
         <v>92</v>
       </c>
       <c r="B93" s="2">
@@ -5077,13 +5257,13 @@
       <c r="D93" t="s">
         <v>290</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="9">
         <v>398</v>
       </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93">
+      <c r="F93" s="9">
+        <v>1</v>
+      </c>
+      <c r="G93" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>398</v>
       </c>
@@ -5095,7 +5275,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A94">
+      <c r="A94" s="9">
         <v>93</v>
       </c>
       <c r="B94" s="2">
@@ -5107,13 +5287,13 @@
       <c r="D94" t="s">
         <v>302</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="9">
         <v>800</v>
       </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
+      <c r="F94" s="9">
+        <v>1</v>
+      </c>
+      <c r="G94" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>800</v>
       </c>
@@ -5128,7 +5308,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95">
+      <c r="A95" s="9">
         <v>94</v>
       </c>
       <c r="B95" s="2">
@@ -5140,13 +5320,13 @@
       <c r="D95" t="s">
         <v>304</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="9">
         <v>6208</v>
       </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
+      <c r="F95" s="9">
+        <v>1</v>
+      </c>
+      <c r="G95" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>6208</v>
       </c>
@@ -5161,7 +5341,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A96">
+      <c r="A96" s="9">
         <v>95</v>
       </c>
       <c r="B96" s="2">
@@ -5173,13 +5353,13 @@
       <c r="D96" t="s">
         <v>295</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="9">
         <v>48.8</v>
       </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
+      <c r="F96" s="9">
+        <v>1</v>
+      </c>
+      <c r="G96" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>48.8</v>
       </c>
@@ -5191,7 +5371,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97">
+      <c r="A97" s="9">
         <v>96</v>
       </c>
       <c r="B97" s="2">
@@ -5203,13 +5383,13 @@
       <c r="D97" t="s">
         <v>298</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="9">
         <v>1488</v>
       </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
+      <c r="F97" s="9">
+        <v>1</v>
+      </c>
+      <c r="G97" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1488</v>
       </c>
@@ -5221,7 +5401,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98">
+      <c r="A98" s="9">
         <v>97</v>
       </c>
       <c r="B98" s="2">
@@ -5233,13 +5413,13 @@
       <c r="D98" t="s">
         <v>308</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="9">
         <v>29</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="9">
         <v>2</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>58</v>
       </c>
@@ -5251,7 +5431,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99">
+      <c r="A99" s="9">
         <v>98</v>
       </c>
       <c r="B99" s="2">
@@ -5263,13 +5443,13 @@
       <c r="D99" t="s">
         <v>308</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="9">
         <v>7</v>
       </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99">
+      <c r="F99" s="9">
+        <v>1</v>
+      </c>
+      <c r="G99" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>7</v>
       </c>
@@ -5281,7 +5461,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100">
+      <c r="A100" s="9">
         <v>99</v>
       </c>
       <c r="B100" s="2">
@@ -5293,13 +5473,13 @@
       <c r="D100" t="s">
         <v>314</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="9">
         <v>2209</v>
       </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
+      <c r="F100" s="9">
+        <v>1</v>
+      </c>
+      <c r="G100" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2209</v>
       </c>
@@ -5311,7 +5491,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101">
+      <c r="A101" s="9">
         <v>100</v>
       </c>
       <c r="B101" s="2">
@@ -5323,13 +5503,13 @@
       <c r="D101" t="s">
         <v>316</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="9">
         <v>66.36</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="9">
         <v>2</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>132.72</v>
       </c>
@@ -5341,7 +5521,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102">
+      <c r="A102" s="9">
         <v>101</v>
       </c>
       <c r="B102" s="2">
@@ -5353,13 +5533,13 @@
       <c r="D102" t="s">
         <v>316</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="9">
         <v>143.01</v>
       </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102">
+      <c r="F102" s="9">
+        <v>1</v>
+      </c>
+      <c r="G102" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>143.01</v>
       </c>
@@ -5371,7 +5551,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103">
+      <c r="A103" s="9">
         <v>102</v>
       </c>
       <c r="B103" s="2">
@@ -5383,13 +5563,13 @@
       <c r="D103" t="s">
         <v>316</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="9">
         <v>96.74</v>
       </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103">
+      <c r="F103" s="9">
+        <v>1</v>
+      </c>
+      <c r="G103" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>96.74</v>
       </c>
@@ -5401,7 +5581,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104">
+      <c r="A104" s="9">
         <v>103</v>
       </c>
       <c r="B104" s="2">
@@ -5413,13 +5593,13 @@
       <c r="D104" t="s">
         <v>316</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="9">
         <v>127.88</v>
       </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104">
+      <c r="F104" s="9">
+        <v>1</v>
+      </c>
+      <c r="G104" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>127.88</v>
       </c>
@@ -5431,7 +5611,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105">
+      <c r="A105" s="9">
         <v>104</v>
       </c>
       <c r="B105" s="2">
@@ -5443,13 +5623,13 @@
       <c r="D105" t="s">
         <v>316</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="9">
         <v>83.19</v>
       </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105">
+      <c r="F105" s="9">
+        <v>1</v>
+      </c>
+      <c r="G105" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>83.19</v>
       </c>
@@ -5461,7 +5641,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106">
+      <c r="A106" s="9">
         <v>105</v>
       </c>
       <c r="B106" s="2">
@@ -5473,13 +5653,13 @@
       <c r="D106" t="s">
         <v>324</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="9">
         <v>81.81</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="9">
         <v>2</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>163.62</v>
       </c>
@@ -5491,7 +5671,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107">
+      <c r="A107" s="9">
         <v>106</v>
       </c>
       <c r="B107" s="2">
@@ -5503,13 +5683,13 @@
       <c r="D107" t="s">
         <v>325</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="9">
         <v>279</v>
       </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107">
+      <c r="F107" s="9">
+        <v>1</v>
+      </c>
+      <c r="G107" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>279</v>
       </c>
@@ -5521,7 +5701,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108">
+      <c r="A108" s="9">
         <v>107</v>
       </c>
       <c r="B108" s="2">
@@ -5533,13 +5713,13 @@
       <c r="D108" t="s">
         <v>327</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="9">
         <v>23.31</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="9">
         <v>17</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>396.27</v>
       </c>
@@ -5551,7 +5731,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109">
+      <c r="A109" s="9">
         <v>108</v>
       </c>
       <c r="B109" s="2">
@@ -5563,13 +5743,13 @@
       <c r="D109" t="s">
         <v>327</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="9">
         <v>24</v>
       </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109">
+      <c r="F109" s="9">
+        <v>1</v>
+      </c>
+      <c r="G109" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>24</v>
       </c>
@@ -5581,7 +5761,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110">
+      <c r="A110" s="9">
         <v>109</v>
       </c>
       <c r="B110" s="2">
@@ -5593,13 +5773,13 @@
       <c r="D110" t="s">
         <v>327</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="9">
         <v>19.850000000000001</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="9">
         <v>10</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>198.5</v>
       </c>
@@ -5611,7 +5791,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111">
+      <c r="A111" s="9">
         <v>110</v>
       </c>
       <c r="B111" s="2">
@@ -5623,13 +5803,13 @@
       <c r="D111" t="s">
         <v>336</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="9">
         <v>1265.4000000000001</v>
       </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111">
+      <c r="F111" s="9">
+        <v>1</v>
+      </c>
+      <c r="G111" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1265.4000000000001</v>
       </c>
@@ -5641,7 +5821,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112">
+      <c r="A112" s="9">
         <v>111</v>
       </c>
       <c r="B112" s="2">
@@ -5653,13 +5833,13 @@
       <c r="D112" t="s">
         <v>340</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="9">
         <v>1612</v>
       </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112">
+      <c r="F112" s="9">
+        <v>1</v>
+      </c>
+      <c r="G112" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1612</v>
       </c>
@@ -5671,7 +5851,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113">
+      <c r="A113" s="9">
         <v>112</v>
       </c>
       <c r="B113" s="2">
@@ -5683,13 +5863,13 @@
       <c r="D113" t="s">
         <v>343</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="9">
         <v>553.20000000000005</v>
       </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
+      <c r="F113" s="9">
+        <v>1</v>
+      </c>
+      <c r="G113" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>553.20000000000005</v>
       </c>
@@ -5701,7 +5881,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114">
+      <c r="A114" s="9">
         <v>113</v>
       </c>
       <c r="B114" s="2">
@@ -5713,13 +5893,13 @@
       <c r="D114" t="s">
         <v>345</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="9">
         <v>1870</v>
       </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114">
+      <c r="F114" s="9">
+        <v>1</v>
+      </c>
+      <c r="G114" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1870</v>
       </c>
@@ -5731,7 +5911,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115">
+      <c r="A115" s="9">
         <v>114</v>
       </c>
       <c r="B115" s="2">
@@ -5743,13 +5923,13 @@
       <c r="D115" t="s">
         <v>347</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="9">
         <v>619.5</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="9">
         <v>4</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>2478</v>
       </c>
@@ -5761,7 +5941,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A116">
+      <c r="A116" s="9">
         <v>115</v>
       </c>
       <c r="B116" s="2">
@@ -5773,13 +5953,13 @@
       <c r="D116" t="s">
         <v>350</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="9">
         <v>188</v>
       </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
+      <c r="F116" s="9">
+        <v>1</v>
+      </c>
+      <c r="G116" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>188</v>
       </c>
@@ -5791,7 +5971,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117">
+      <c r="A117" s="9">
         <v>116</v>
       </c>
       <c r="B117" s="2">
@@ -5803,13 +5983,13 @@
       <c r="D117" t="s">
         <v>353</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="9">
         <v>97.89</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="9">
         <v>7</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>685.23</v>
       </c>
@@ -5821,7 +6001,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A118">
+      <c r="A118" s="9">
         <v>117</v>
       </c>
       <c r="B118" s="2">
@@ -5833,13 +6013,13 @@
       <c r="D118" t="s">
         <v>327</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="9">
         <v>17.02</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="9">
         <v>4</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>68.08</v>
       </c>
@@ -5851,7 +6031,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119">
+      <c r="A119" s="9">
         <v>118</v>
       </c>
       <c r="B119" s="2">
@@ -5863,13 +6043,13 @@
       <c r="D119" t="s">
         <v>327</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="9">
         <v>38.049999999999997</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="9">
         <v>22</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>837.09999999999991</v>
       </c>
@@ -5881,7 +6061,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A120">
+      <c r="A120" s="9">
         <v>119</v>
       </c>
       <c r="B120" s="2">
@@ -5893,13 +6073,13 @@
       <c r="D120" t="s">
         <v>327</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="9">
         <v>38.24</v>
       </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="G120">
+      <c r="F120" s="9">
+        <v>1</v>
+      </c>
+      <c r="G120" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>38.24</v>
       </c>
@@ -5911,7 +6091,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A121">
+      <c r="A121" s="9">
         <v>120</v>
       </c>
       <c r="B121" s="2">
@@ -5923,13 +6103,13 @@
       <c r="D121" t="s">
         <v>327</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="9">
         <v>22.75</v>
       </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
+      <c r="F121" s="9">
+        <v>1</v>
+      </c>
+      <c r="G121" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>22.75</v>
       </c>
@@ -5941,7 +6121,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122">
+      <c r="A122" s="9">
         <v>121</v>
       </c>
       <c r="B122" s="2">
@@ -5953,13 +6133,13 @@
       <c r="D122" t="s">
         <v>327</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="9">
         <v>18.93</v>
       </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122">
+      <c r="F122" s="9">
+        <v>1</v>
+      </c>
+      <c r="G122" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>18.93</v>
       </c>
@@ -5971,7 +6151,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A123">
+      <c r="A123" s="9">
         <v>122</v>
       </c>
       <c r="B123" s="2">
@@ -5983,13 +6163,13 @@
       <c r="D123" t="s">
         <v>327</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="9">
         <v>14.15</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="9">
         <v>5</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>70.75</v>
       </c>
@@ -6001,7 +6181,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A124">
+      <c r="A124" s="9">
         <v>123</v>
       </c>
       <c r="B124" s="2">
@@ -6010,13 +6190,13 @@
       <c r="C124" t="s">
         <v>359</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="9">
         <v>8.1300000000000008</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="9">
         <v>4</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>32.520000000000003</v>
       </c>
@@ -6028,7 +6208,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A125">
+      <c r="A125" s="9">
         <v>124</v>
       </c>
       <c r="B125" s="2">
@@ -6040,13 +6220,13 @@
       <c r="D125" t="s">
         <v>308</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="9">
         <v>263</v>
       </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="G125">
+      <c r="F125" s="9">
+        <v>1</v>
+      </c>
+      <c r="G125" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>263</v>
       </c>
@@ -6058,7 +6238,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A126">
+      <c r="A126" s="9">
         <v>125</v>
       </c>
       <c r="B126" s="2">
@@ -6070,13 +6250,13 @@
       <c r="D126" t="s">
         <v>308</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="9">
         <v>20.5</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="9">
         <v>2</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>41</v>
       </c>
@@ -6088,7 +6268,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A127">
+      <c r="A127" s="9">
         <v>126</v>
       </c>
       <c r="B127" s="2">
@@ -6100,13 +6280,13 @@
       <c r="D127" t="s">
         <v>372</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="9">
         <v>56</v>
       </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127" s="4">
+      <c r="F127" s="9">
+        <v>1</v>
+      </c>
+      <c r="G127" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>56</v>
       </c>
@@ -6118,7 +6298,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A128">
+      <c r="A128" s="9">
         <v>127</v>
       </c>
       <c r="B128" s="2">
@@ -6130,13 +6310,13 @@
       <c r="D128" t="s">
         <v>374</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="9">
         <v>24</v>
       </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128" s="4">
+      <c r="F128" s="9">
+        <v>1</v>
+      </c>
+      <c r="G128" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>24</v>
       </c>
@@ -6148,7 +6328,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A129">
+      <c r="A129" s="9">
         <v>128</v>
       </c>
       <c r="B129" s="2">
@@ -6160,13 +6340,13 @@
       <c r="D129" t="s">
         <v>374</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="9">
         <v>6</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="9">
         <v>3</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>18</v>
       </c>
@@ -6178,7 +6358,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A130">
+      <c r="A130" s="9">
         <v>129</v>
       </c>
       <c r="B130" s="2">
@@ -6190,13 +6370,13 @@
       <c r="D130" t="s">
         <v>310</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="9">
         <v>6002</v>
       </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130" s="4">
+      <c r="F130" s="9">
+        <v>1</v>
+      </c>
+      <c r="G130" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>6002</v>
       </c>
@@ -6208,7 +6388,7 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A131">
+      <c r="A131" s="9">
         <v>130</v>
       </c>
       <c r="B131" s="2">
@@ -6220,13 +6400,13 @@
       <c r="D131" t="s">
         <v>310</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="9">
         <v>1480</v>
       </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131" s="4">
+      <c r="F131" s="9">
+        <v>1</v>
+      </c>
+      <c r="G131" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1480</v>
       </c>
@@ -6238,7 +6418,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A132">
+      <c r="A132" s="9">
         <v>131</v>
       </c>
       <c r="B132" s="2">
@@ -6250,13 +6430,13 @@
       <c r="D132" t="s">
         <v>310</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="9">
         <v>17</v>
       </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="G132" s="4">
+      <c r="F132" s="9">
+        <v>1</v>
+      </c>
+      <c r="G132" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>17</v>
       </c>
@@ -6268,7 +6448,7 @@
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A133">
+      <c r="A133" s="9">
         <v>132</v>
       </c>
       <c r="B133" s="2">
@@ -6280,13 +6460,13 @@
       <c r="D133" t="s">
         <v>394</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="9">
         <v>90</v>
       </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="G133" s="4">
+      <c r="F133" s="9">
+        <v>1</v>
+      </c>
+      <c r="G133" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>90</v>
       </c>
@@ -6298,7 +6478,7 @@
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A134">
+      <c r="A134" s="9">
         <v>133</v>
       </c>
       <c r="B134" s="2">
@@ -6310,13 +6490,13 @@
       <c r="D134" t="s">
         <v>396</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="9">
         <v>280</v>
       </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-      <c r="G134" s="4">
+      <c r="F134" s="9">
+        <v>1</v>
+      </c>
+      <c r="G134" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>280</v>
       </c>
@@ -6328,7 +6508,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A135">
+      <c r="A135" s="9">
         <v>134</v>
       </c>
       <c r="B135" s="2">
@@ -6340,13 +6520,13 @@
       <c r="D135" t="s">
         <v>364</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="9">
         <v>100</v>
       </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135">
+      <c r="F135" s="9">
+        <v>1</v>
+      </c>
+      <c r="G135" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>100</v>
       </c>
@@ -6358,7 +6538,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A136">
+      <c r="A136" s="9">
         <v>135</v>
       </c>
       <c r="B136" s="2">
@@ -6370,13 +6550,13 @@
       <c r="D136" t="s">
         <v>368</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="9">
         <v>28</v>
       </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136">
+      <c r="F136" s="9">
+        <v>1</v>
+      </c>
+      <c r="G136" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>28</v>
       </c>
@@ -6388,7 +6568,7 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A137">
+      <c r="A137" s="9">
         <v>136</v>
       </c>
       <c r="B137" s="2">
@@ -6400,13 +6580,13 @@
       <c r="D137" t="s">
         <v>382</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="9">
         <v>182</v>
       </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="G137">
+      <c r="F137" s="9">
+        <v>1</v>
+      </c>
+      <c r="G137" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>182</v>
       </c>
@@ -6418,7 +6598,7 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A138">
+      <c r="A138" s="9">
         <v>137</v>
       </c>
       <c r="B138" s="2">
@@ -6430,13 +6610,13 @@
       <c r="D138" t="s">
         <v>384</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="9">
         <v>157</v>
       </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138" s="4">
+      <c r="F138" s="9">
+        <v>1</v>
+      </c>
+      <c r="G138" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>157</v>
       </c>
@@ -6448,7 +6628,7 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A139">
+      <c r="A139" s="9">
         <v>138</v>
       </c>
       <c r="B139" s="2">
@@ -6460,13 +6640,13 @@
       <c r="D139" t="s">
         <v>386</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="9">
         <v>1189.5999999999999</v>
       </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139" s="4">
+      <c r="F139" s="9">
+        <v>1</v>
+      </c>
+      <c r="G139" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>1189.5999999999999</v>
       </c>
@@ -6478,7 +6658,7 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A140">
+      <c r="A140" s="9">
         <v>139</v>
       </c>
       <c r="B140" s="2">
@@ -6490,13 +6670,13 @@
       <c r="D140" t="s">
         <v>327</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="9">
         <v>234.3</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="9">
         <v>2</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>468.6</v>
       </c>
@@ -6512,7 +6692,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A141">
+      <c r="A141" s="9">
         <v>140</v>
       </c>
       <c r="B141" s="2">
@@ -6524,13 +6704,13 @@
       <c r="D141" t="s">
         <v>390</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="9">
         <v>112.88</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="9">
         <v>2</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>225.76</v>
       </c>
@@ -6546,7 +6726,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A142">
+      <c r="A142" s="9">
         <v>141</v>
       </c>
       <c r="B142" s="2">
@@ -6558,13 +6738,13 @@
       <c r="D142" t="s">
         <v>390</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="9">
         <v>281.24</v>
       </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="G142" s="4">
+      <c r="F142" s="9">
+        <v>1</v>
+      </c>
+      <c r="G142" s="9">
         <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
         <v>281.24</v>
       </c>
@@ -6573,6 +6753,669 @@
       </c>
       <c r="I142" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A143" s="9">
+        <v>142</v>
+      </c>
+      <c r="B143" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C143" t="s">
+        <v>431</v>
+      </c>
+      <c r="D143" t="s">
+        <v>432</v>
+      </c>
+      <c r="E143" s="9">
+        <v>140.74</v>
+      </c>
+      <c r="F143" s="9">
+        <v>1</v>
+      </c>
+      <c r="G143" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>140.74</v>
+      </c>
+      <c r="H143" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A144" s="9">
+        <v>143</v>
+      </c>
+      <c r="B144" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C144" t="s">
+        <v>433</v>
+      </c>
+      <c r="D144" t="s">
+        <v>434</v>
+      </c>
+      <c r="E144" s="9">
+        <v>138.1</v>
+      </c>
+      <c r="F144" s="9">
+        <v>1</v>
+      </c>
+      <c r="G144" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>138.1</v>
+      </c>
+      <c r="H144" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A145" s="9">
+        <v>144</v>
+      </c>
+      <c r="B145" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C145" t="s">
+        <v>435</v>
+      </c>
+      <c r="D145" t="s">
+        <v>436</v>
+      </c>
+      <c r="E145" s="9">
+        <v>116.56</v>
+      </c>
+      <c r="F145" s="9">
+        <v>1</v>
+      </c>
+      <c r="G145" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>116.56</v>
+      </c>
+      <c r="H145" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A146" s="9">
+        <v>145</v>
+      </c>
+      <c r="B146" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C146" t="s">
+        <v>437</v>
+      </c>
+      <c r="D146" t="s">
+        <v>438</v>
+      </c>
+      <c r="E146" s="9">
+        <v>556.44000000000005</v>
+      </c>
+      <c r="F146" s="9">
+        <v>1</v>
+      </c>
+      <c r="G146" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>556.44000000000005</v>
+      </c>
+      <c r="H146" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A147" s="9">
+        <v>146</v>
+      </c>
+      <c r="B147" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C147" t="s">
+        <v>439</v>
+      </c>
+      <c r="D147" t="s">
+        <v>440</v>
+      </c>
+      <c r="E147" s="9">
+        <v>361.3</v>
+      </c>
+      <c r="F147" s="9">
+        <v>1</v>
+      </c>
+      <c r="G147" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>361.3</v>
+      </c>
+      <c r="H147" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A148" s="9">
+        <v>147</v>
+      </c>
+      <c r="B148" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C148" t="s">
+        <v>441</v>
+      </c>
+      <c r="D148" t="s">
+        <v>442</v>
+      </c>
+      <c r="E148" s="9">
+        <v>119.2</v>
+      </c>
+      <c r="F148" s="9">
+        <v>1</v>
+      </c>
+      <c r="G148" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>119.2</v>
+      </c>
+      <c r="H148" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A149" s="9">
+        <v>148</v>
+      </c>
+      <c r="B149" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C149" t="s">
+        <v>443</v>
+      </c>
+      <c r="D149" t="s">
+        <v>444</v>
+      </c>
+      <c r="E149" s="9">
+        <v>103.27</v>
+      </c>
+      <c r="F149" s="9">
+        <v>1</v>
+      </c>
+      <c r="G149" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>103.27</v>
+      </c>
+      <c r="H149" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A150" s="9">
+        <v>149</v>
+      </c>
+      <c r="B150" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C150" t="s">
+        <v>445</v>
+      </c>
+      <c r="D150" t="s">
+        <v>446</v>
+      </c>
+      <c r="E150" s="9">
+        <v>1</v>
+      </c>
+      <c r="F150" s="9">
+        <v>20</v>
+      </c>
+      <c r="G150" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>20</v>
+      </c>
+      <c r="H150" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A151" s="9">
+        <v>150</v>
+      </c>
+      <c r="B151" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C151" t="s">
+        <v>447</v>
+      </c>
+      <c r="D151" t="s">
+        <v>446</v>
+      </c>
+      <c r="E151" s="9">
+        <v>6</v>
+      </c>
+      <c r="F151" s="9">
+        <v>6</v>
+      </c>
+      <c r="G151" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>36</v>
+      </c>
+      <c r="H151" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A152" s="9">
+        <v>151</v>
+      </c>
+      <c r="B152" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C152" t="s">
+        <v>448</v>
+      </c>
+      <c r="D152" t="s">
+        <v>446</v>
+      </c>
+      <c r="E152" s="9">
+        <v>56</v>
+      </c>
+      <c r="F152" s="9">
+        <v>1</v>
+      </c>
+      <c r="G152" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>56</v>
+      </c>
+      <c r="H152" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A153" s="9">
+        <v>152</v>
+      </c>
+      <c r="B153" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C153" t="s">
+        <v>449</v>
+      </c>
+      <c r="D153" t="s">
+        <v>450</v>
+      </c>
+      <c r="E153" s="9">
+        <v>50.1</v>
+      </c>
+      <c r="F153" s="9">
+        <v>1</v>
+      </c>
+      <c r="G153" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>50.1</v>
+      </c>
+      <c r="H153" t="s">
+        <v>286</v>
+      </c>
+      <c r="I153" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A154" s="9">
+        <v>153</v>
+      </c>
+      <c r="B154" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C154" t="s">
+        <v>451</v>
+      </c>
+      <c r="D154" t="s">
+        <v>452</v>
+      </c>
+      <c r="E154" s="9">
+        <v>110.7</v>
+      </c>
+      <c r="F154" s="9">
+        <v>1</v>
+      </c>
+      <c r="G154" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>110.7</v>
+      </c>
+      <c r="H154" t="s">
+        <v>286</v>
+      </c>
+      <c r="I154" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A155" s="9">
+        <v>154</v>
+      </c>
+      <c r="B155" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C155" t="s">
+        <v>453</v>
+      </c>
+      <c r="D155" t="s">
+        <v>450</v>
+      </c>
+      <c r="E155" s="9">
+        <v>217.9</v>
+      </c>
+      <c r="F155" s="9">
+        <v>1</v>
+      </c>
+      <c r="G155" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>217.9</v>
+      </c>
+      <c r="H155" t="s">
+        <v>286</v>
+      </c>
+      <c r="I155" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A156" s="9">
+        <v>155</v>
+      </c>
+      <c r="B156" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C156" t="s">
+        <v>454</v>
+      </c>
+      <c r="D156" t="s">
+        <v>450</v>
+      </c>
+      <c r="E156" s="9">
+        <v>169.3</v>
+      </c>
+      <c r="F156" s="9">
+        <v>1</v>
+      </c>
+      <c r="G156" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>169.3</v>
+      </c>
+      <c r="H156" t="s">
+        <v>286</v>
+      </c>
+      <c r="I156" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A157" s="9">
+        <v>156</v>
+      </c>
+      <c r="B157" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C157" t="s">
+        <v>455</v>
+      </c>
+      <c r="D157" t="s">
+        <v>450</v>
+      </c>
+      <c r="E157" s="9">
+        <v>12.9</v>
+      </c>
+      <c r="F157" s="9">
+        <v>1</v>
+      </c>
+      <c r="G157" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>12.9</v>
+      </c>
+      <c r="H157" t="s">
+        <v>286</v>
+      </c>
+      <c r="I157" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A158" s="9">
+        <v>157</v>
+      </c>
+      <c r="B158" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C158" t="s">
+        <v>451</v>
+      </c>
+      <c r="D158" t="s">
+        <v>452</v>
+      </c>
+      <c r="E158" s="9">
+        <v>167.8</v>
+      </c>
+      <c r="F158" s="9">
+        <v>1</v>
+      </c>
+      <c r="G158" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>167.8</v>
+      </c>
+      <c r="H158" t="s">
+        <v>286</v>
+      </c>
+      <c r="I158" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A159" s="9">
+        <v>158</v>
+      </c>
+      <c r="B159" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C159" t="s">
+        <v>456</v>
+      </c>
+      <c r="D159" t="s">
+        <v>460</v>
+      </c>
+      <c r="E159" s="9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F159" s="9">
+        <v>1</v>
+      </c>
+      <c r="G159" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H159" t="s">
+        <v>286</v>
+      </c>
+      <c r="I159" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A160" s="9">
+        <v>159</v>
+      </c>
+      <c r="B160" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C160" t="s">
+        <v>457</v>
+      </c>
+      <c r="D160" t="s">
+        <v>460</v>
+      </c>
+      <c r="E160" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F160" s="9">
+        <v>1</v>
+      </c>
+      <c r="G160" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H160" t="s">
+        <v>286</v>
+      </c>
+      <c r="I160" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A161" s="9">
+        <v>160</v>
+      </c>
+      <c r="B161" s="8">
+        <v>43081</v>
+      </c>
+      <c r="C161" t="s">
+        <v>458</v>
+      </c>
+      <c r="D161" t="s">
+        <v>459</v>
+      </c>
+      <c r="E161" s="9">
+        <v>1499.5</v>
+      </c>
+      <c r="F161" s="9">
+        <v>1</v>
+      </c>
+      <c r="G161" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>1499.5</v>
+      </c>
+      <c r="H161" t="s">
+        <v>286</v>
+      </c>
+      <c r="I161" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A162" s="9">
+        <v>161</v>
+      </c>
+      <c r="B162" s="8">
+        <v>43089</v>
+      </c>
+      <c r="C162" t="s">
+        <v>461</v>
+      </c>
+      <c r="D162" t="s">
+        <v>462</v>
+      </c>
+      <c r="E162" s="9">
+        <v>1399</v>
+      </c>
+      <c r="F162" s="9">
+        <v>1</v>
+      </c>
+      <c r="G162" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>1399</v>
+      </c>
+      <c r="H162" t="s">
+        <v>286</v>
+      </c>
+      <c r="I162" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A163" s="9">
+        <v>162</v>
+      </c>
+      <c r="B163" s="8">
+        <v>43089</v>
+      </c>
+      <c r="C163" t="s">
+        <v>464</v>
+      </c>
+      <c r="D163" t="s">
+        <v>462</v>
+      </c>
+      <c r="E163" s="9">
+        <v>189</v>
+      </c>
+      <c r="F163" s="9">
+        <v>1</v>
+      </c>
+      <c r="G163" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>189</v>
+      </c>
+      <c r="H163" t="s">
+        <v>286</v>
+      </c>
+      <c r="I163" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A164" s="9">
+        <v>163</v>
+      </c>
+      <c r="B164" s="8">
+        <v>43089</v>
+      </c>
+      <c r="C164" t="s">
+        <v>465</v>
+      </c>
+      <c r="D164" t="s">
+        <v>466</v>
+      </c>
+      <c r="E164" s="9">
+        <v>650</v>
+      </c>
+      <c r="F164" s="9">
+        <v>1</v>
+      </c>
+      <c r="G164" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>650</v>
+      </c>
+      <c r="H164" t="s">
+        <v>467</v>
+      </c>
+      <c r="I164" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A165" s="9">
+        <v>164</v>
+      </c>
+      <c r="B165" s="8">
+        <v>43089</v>
+      </c>
+      <c r="C165" t="s">
+        <v>469</v>
+      </c>
+      <c r="D165" t="s">
+        <v>470</v>
+      </c>
+      <c r="E165" s="9">
+        <v>1150</v>
+      </c>
+      <c r="F165" s="9">
+        <v>1</v>
+      </c>
+      <c r="G165" s="9">
+        <f>表1[[#This Row],[列5]]*表1[[#This Row],[列6]]</f>
+        <v>1150</v>
+      </c>
+      <c r="H165" t="s">
+        <v>467</v>
+      </c>
+      <c r="I165" t="s">
+        <v>470</v>
+      </c>
+      <c r="J165" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -6589,130 +7432,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6" style="8" customWidth="1"/>
     <col min="2" max="2" width="60.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>249</v>
       </c>
       <c r="B16" t="s">
@@ -6720,7 +7563,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>1</v>
       </c>
       <c r="B17" t="s">
@@ -6728,7 +7571,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>2</v>
       </c>
       <c r="B18" t="s">
@@ -6736,7 +7579,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>3</v>
       </c>
       <c r="B19" t="s">
@@ -6744,7 +7587,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>4</v>
       </c>
       <c r="B20" t="s">
@@ -6752,7 +7595,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>5</v>
       </c>
       <c r="B21" t="s">
@@ -6760,7 +7603,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>6</v>
       </c>
       <c r="B22" t="s">
@@ -6768,7 +7611,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>7</v>
       </c>
       <c r="B23" t="s">
@@ -6776,7 +7619,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>8</v>
       </c>
       <c r="B24" t="s">
@@ -6784,7 +7627,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>9</v>
       </c>
       <c r="B25" t="s">
@@ -6792,7 +7635,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>10</v>
       </c>
       <c r="B26" t="s">
@@ -6800,7 +7643,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>11</v>
       </c>
       <c r="B27" t="s">
@@ -6808,7 +7651,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>12</v>
       </c>
       <c r="B28" t="s">
@@ -6816,7 +7659,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>13</v>
       </c>
       <c r="B29" t="s">
@@ -6824,7 +7667,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>14</v>
       </c>
       <c r="B30" t="s">
@@ -6832,7 +7675,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>15</v>
       </c>
       <c r="B31" t="s">
@@ -6840,7 +7683,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>16</v>
       </c>
       <c r="B32" t="s">
